--- a/NIST.xlsx
+++ b/NIST.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>COMANDO</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>parse.find_objects_w_child(parentspec=r"^line vty", childspec=r"login authentication")</t>
+  </si>
+  <si>
+    <t>TIPO</t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -507,7 +510,7 @@
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +532,11 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -552,8 +558,11 @@
       <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -575,8 +584,11 @@
       <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -598,8 +610,11 @@
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -621,8 +636,11 @@
       <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -644,8 +662,11 @@
       <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -667,8 +688,11 @@
       <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -689,6 +713,9 @@
       </c>
       <c r="G8" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/NIST.xlsx
+++ b/NIST.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emiliano\Desktop\tesis\LanGuardian2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiscar\Desktop\Tesis\LanGuardian2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD310982-F16F-4B61-8E97-9F7B0FCD7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NIST" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="505">
   <si>
     <t>COMANDO</t>
   </si>
@@ -122,42 +123,21 @@
     <t>line vty {line-number} [&lt;em&gt;ending-line-number] || login authentication {default | aaa_list_name}</t>
   </si>
   <si>
-    <t>Defina una clave de autenticación para Network Time Protocol (NTP).</t>
-  </si>
-  <si>
-    <t>El uso de una clave de autenticación proporciona un mayor grado de seguridad, ya que solo los servidores NTP autenticados podrán actualizar la hora del dispositivo Cisco.</t>
-  </si>
-  <si>
-    <t>Las organizaciones deben establecer tres hosts de Protocolo de tiempo de red (NTP) para establecer una hora coherente en toda la empresa. Habilitar el comando 'ntp authentication-key' fuerza la autenticación encriptada entre hosts NTP.</t>
-  </si>
-  <si>
-    <t>Configure en el llavero de claves NTP y la clave de cifrado con el siguiente comando</t>
-  </si>
-  <si>
     <t>ntp authentication-key {ntp_key_id} md5 {ntp_key_hash}</t>
   </si>
   <si>
     <t>PR.AC-1;PR.AC-4;PR.AC-6;PR.AC-7;PR.IP-11;PR.PT-1;DE.AE-1;DE.AE-3;DE.CM-1;DE.CM-3;DE.CM-7</t>
   </si>
   <si>
-    <t>PR.PT-1;DE.AE-1;DE.AE-2;DE.AE-3;DE.AE-4;DE.AE-5;RS.AN-1</t>
-  </si>
-  <si>
     <t>parse.find_objects(r"^aaa authentication login")</t>
   </si>
   <si>
     <t>parse.find_objects(r"^aaa authentication enable")</t>
   </si>
   <si>
-    <t>parse.find_objects(r"^ntp authentication-key")</t>
-  </si>
-  <si>
     <t>parse.find_objects(r"^aaa new-model")</t>
   </si>
   <si>
-    <t>parse.find_objects(r"^line con 0")</t>
-  </si>
-  <si>
     <t>parse.find_objects_w_child(parentspec=r"^line con 0", childspec=r"login authentication")</t>
   </si>
   <si>
@@ -165,12 +145,1471 @@
   </si>
   <si>
     <t>TIPO</t>
+  </si>
+  <si>
+    <t>parse.find_objects_w_child(parentspec=r"^line tty", childspec=r"login authentication")</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip http authentication ")</t>
+  </si>
+  <si>
+    <t>Si las funciones de administración de cuentas no se aplican automáticamente, un atacante podría obtener acceso privilegiado a un elemento vital de la arquitectura de seguridad de la red.</t>
+  </si>
+  <si>
+    <t>Habilitar el 'line login' de Cisco AAA es significativamente perjudicial, ya que los métodos de acceso anteriores se deshabilitan de inmediato. Por lo tanto, antes de habilitar el 'line login' de Cisco AAA, la organización debe planificar e implementar inicios de sesión y contraseñas de autenticación, desafíos y respuestas, y tecnologías de token.</t>
+  </si>
+  <si>
+    <t>ip http secure-server ||     ip http authentication {default | _aaa\_list\_name_}</t>
+  </si>
+  <si>
+    <t>PR.AC-1;PR.AC-4;PR.AC-6;PR.AC-7;PR.IP-11;PR.PT-1;DE.AE-1;DE.AE-3;DE.CM-1;DE.CM-3;DE.CM-8</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^aaa accounting commands 15 ")</t>
+  </si>
+  <si>
+    <t>Ejecuta accounting de todos los comandos en el nivel de privilegio especificado.</t>
+  </si>
+  <si>
+    <t>Los sistemas de autenticación, autorización y contabilidad (AAA) proporcionan una fuente autorizada para administrar y monitorear el acceso de los dispositivos. La centralización del control mejora la coherencia del control de acceso, los servicios a los que se puede acceder una vez autenticados y la responsabilidad mediante el seguimiento de los servicios a los que se accede. Además, la centralización del control de acceso simplifica y reduce los costos administrativos de aprovisionamiento y desaprovisionamiento de cuentas, especialmente cuando se administra una gran cantidad de dispositivos. Accounting AAA proporciona una traza de gestión y auditoría para las sesiones administrativas y de usuario a través de RADIUS o TACACS +.</t>
+  </si>
+  <si>
+    <t>Habilitar el 'accounting aaa' para los registros de comandos privilegiados y envía la actividad a los servidores de accounting y permite a las organizaciones monitorear y analizar la actividad privilegiada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Configure el accounting AAA para los comandos.</t>
+  </si>
+  <si>
+    <t>aaa accounting commands 15 {default | list-name | guarantee-first} {start-stop | stop-only | none} {radius | group group-name}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^aaa accounting connection ")</t>
+  </si>
+  <si>
+    <t>Proporciona información sobre todas las conexiones salientes realizadas desde el servidor de acceso a la red.</t>
+  </si>
+  <si>
+    <t>Los sistemas de autenticación, autorización y contabilidad (AAA) proporcionan una fuente autorizada para administrar y monitorear el acceso de los dispositivos. La centralización del control mejora la coherencia del control de acceso, los servicios a los que se puede acceder una vez autenticados y la responsabilidad mediante el seguimiento de los servicios a los que se accede. Además, la centralización del control de acceso simplifica y reduce los costos administrativos de aprovisionamiento y desaprovisionamiento de cuentas, especialmente cuando se administra una gran cantidad de dispositivos. Contabilidad AAA proporciona una pista de gestión y auditoría para las sesiones administrativas y de usuario a través de RADIUS y TACACS +.</t>
+  </si>
+  <si>
+    <t>La implementación de la conexión de accounting aaa crea registros accountings sobre las conexiones desde el servidor de acceso a la red. Las organizaciones deben monitorear periódicamente estos registros de conexión para detectar excepciones, solucionar problemas e informar los hallazgos con regularidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Configure el accounting AAA para las conexiones.</t>
+  </si>
+  <si>
+    <t>aaa accounting connection {default | list-name | guarantee-first} {start-stop | stop-only | none} {radius | group group-name}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^aaa accounting exec ")</t>
+  </si>
+  <si>
+    <t>Ejecuta el accounting de la sesión de shell EXEC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los sistemas de autenticación, autorización y contabilidad (AAA) proporcionan una fuente autorizada para administrar y monitorear el acceso de los dispositivos. La centralización del control mejora la coherencia del control de acceso, los servicios a los que se puede acceder una vez autenticados y la responsabilidad mediante el seguimiento de los servicios a los que se accede. Además, la centralización del control de acceso simplifica y reduce los costos administrativos de aprovisionamiento y desaprovisionamiento de cuentas, especialmente cuando se administra una gran cantidad de dispositivos. Accounting AAA proporciona una traza de gestión y auditoría para las sesiones administrativas y de usuario a través de RADIUS y TACACS +.
+</t>
+  </si>
+  <si>
+    <t>Habilitar aaa exec de accounting crea registros de accounting para las sesiones de terminal EXEC en el servidor de acceso a la red. Estos registros incluyen horas de inicio y finalización, nombres de usuario e información de fecha. Las organizaciones deben monitorear regularmente estos registros para detectar excepciones, remediar problemas e informar los hallazgos.</t>
+  </si>
+  <si>
+    <t>Configure el accounting AAA para la sesión de shell EXEC.</t>
+  </si>
+  <si>
+    <t>aaa accounting exec {default | list-name | guarantee-first} {start-stop | stop-only | none} {radius | group group-name}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^aaa accounting network ")</t>
+  </si>
+  <si>
+    <t>Ejecuta el accounting de todas las solicitudes de servicio relacionadas con la red.</t>
+  </si>
+  <si>
+    <t>Los sistemas de autenticación, autorización y contabilidad (AAA) proporcionan una fuente autorizada para administrar y monitorear el acceso de los dispositivos. La centralización del control mejora la coherencia del control de acceso, los servicios a los que se puede acceder una vez autenticados y la responsabilidad mediante el seguimiento de los servicios a los que se accede. Además, la centralización del control de acceso simplifica y reduce los costos administrativos de aprovisionamiento y desaprovisionamiento de cuentas, especialmente cuando se administra una gran cantidad de dispositivos. Accounting AAA proporciona una traza de gestión y auditoría para las sesiones administrativas y de usuario a través de RADIUS y TACACS +.</t>
+  </si>
+  <si>
+    <t>La implementación de una red de accounting aaa crea registros accounting para una lista de métodos que incluye sesiones ARA, PPP, SLIP y NCP. Las organizaciones deben monitorear periódicamente estos registros para detectar excepciones, remediar problemas e informar los hallazgos.</t>
+  </si>
+  <si>
+    <t>Configure el accounting AAA para conexiones.</t>
+  </si>
+  <si>
+    <t>aaa accounting network {default | list-name | guarantee-first} {start-stop | stop-only | none} {radius | group group-name}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^aaa accounting system ")</t>
+  </si>
+  <si>
+    <t>Realiza el accounting de todos los eventos a nivel del sistema no asociados con los usuarios, como los reinicios.</t>
+  </si>
+  <si>
+    <t>Los sistemas de autenticación, autorización y contabilidad (AAA) proporcionan una fuente autorizada para administrar y monitorear el acceso de los dispositivos. La centralización del control mejora la coherencia del control de acceso, los servicios a los que se puede acceder una vez autenticados y la responsabilidad mediante el seguimiento de los servicios a los que se accede. Además, la centralización del control de acceso simplifica y reduce los costos administrativos de aprovisionamiento y desaprovisionamiento de cuentas, especialmente cuando se administra una gran cantidad de dispositivos. Accounting AAA proporciona unatraza de gestión y auditoría para las sesiones administrativas y de usuario a través de RADIUS y TACACS +.</t>
+  </si>
+  <si>
+    <t>La habilitación del sistema de accounting aaa crea registros contables para todos los eventos a nivel del sistema. Las organizaciones deben monitorear periódicamente estos registros para detectar excepciones, remediar problemas e informar los hallazgos con regularidad.</t>
+  </si>
+  <si>
+    <t>Configure AAA accounting de sistema.</t>
+  </si>
+  <si>
+    <t>aaa accounting system {default | list-name | guarantee-first} {start-stop | stop-only | none} {radius | group group-name}</t>
+  </si>
+  <si>
+    <t>Establece el nivel de privilegio para el usuario.</t>
+  </si>
+  <si>
+    <t>La configuración predeterminada del dispositivo no requiere una autenticación de usuario sólida que permita potencialmente el acceso sin restricciones a un atacante que pueda llegar al dispositivo. La creación de una cuenta local con permisos de nivel de privilegio 1 solo permite al usuario local acceder al dispositivo con permisos de nivel EXEC y no podrá modificar el dispositivo sin usar la contraseña de habilitación. Además, también requiere el uso de una contraseña cifrada.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben crear políticas que requieran todas las cuentas locales con 'nivel de privilegio 1' con contraseñas encriptadas para reducir el riesgo de acceso no autorizado. Los ajustes de configuración predeterminados no proporcionan una autenticación de usuario sólida para el dispositivo.</t>
+  </si>
+  <si>
+    <t>Configure el usuario local en el nivel de privilegio 1.</t>
+  </si>
+  <si>
+    <t>username &lt;LOCAL_USERNAME&gt; privilege 1</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^transport input ssh ")</t>
+  </si>
+  <si>
+    <t>Selecciona el protocolo Secure Shell (SSH).</t>
+  </si>
+  <si>
+    <t>La configuración del control de acceso VTY restringe el acceso remoto solo a aquellos autorizados para administrar el dispositivo y evita que usuarios no autorizados accedan al sistema.</t>
+  </si>
+  <si>
+    <t>Para reducir el riesgo de acceso no autorizado, las organizaciones deben exigir que todos los protocolos de línea de administración de VTY se limiten a ssh.</t>
+  </si>
+  <si>
+    <t>Aplicar transporte SSH para entradas en todas las líneas de administración de VTY</t>
+  </si>
+  <si>
+    <t>line vty &lt;line-number&gt; &lt;ending-line-number&gt; || transport input ssh</t>
+  </si>
+  <si>
+    <t>El comando 'no exec' restringe una línea solo a las conexiones salientes.</t>
+  </si>
+  <si>
+    <t>Los puertos no utilizados deben deshabilitarse, si no es necesario, ya que proporcionan una ruta de acceso potencial para los atacantes. Algunos dispositivos incluyen un puerto auxiliar y de consola que se puede utilizar para conectarse localmente y configurar el dispositivo. El puerto de consola es normalmente el puerto principal utilizado para configurar el dispositivo; incluso cuando se requiere administración remota de copias de seguridad a través del servidor de consola o hardware de teclado, video, mouse (KVM). El puerto auxiliar se utiliza principalmente para la administración de acceso telefónico a través de un módem externo; en su lugar, utilice otros métodos disponibles.</t>
+  </si>
+  <si>
+    <t>Las organizaciones pueden reducir el riesgo de acceso no autorizado deshabilitando el puerto 'auxiliar' con el comando 'no exec'. Por el contrario, no restringir el acceso a través del puerto 'auxiliar' aumenta el riesgo de acceso remoto no autorizado.</t>
+  </si>
+  <si>
+    <t>Deshabilite el proceso EXEC en el puerto auxiliar.</t>
+  </si>
+  <si>
+    <t>line aux 0 || no exec</t>
+  </si>
+  <si>
+    <t>Las listas de acceso controlan la transmisión de paquetes en una interfaz, controlan el acceso a la línea de terminal virtual (VTY) y restringen el contenido de las actualizaciones de enrutamiento. El software Cisco IOS deja de verificar la lista de acceso extendido después de que se produce una coincidencia.</t>
+  </si>
+  <si>
+    <t>Las ACL VTY controlan qué direcciones pueden intentar iniciar sesión en el router. La configuración de líneas VTY para usar una ACL restringe los orígenes donde un usuario puede administrar el dispositivo. Debe limitar los hosts específicos y/o las redes autorizadas para conectarse y configurar el dispositivo, a través de un protocolo aprobado, a las personas o sistemas autorizados para administrar el dispositivo. Por ejemplo, podría limitar el acceso a hosts específicos, de modo que solo los administradores de red puedan configurar los dispositivos solo mediante estaciones de trabajo de administración de red específicas. Asegúrese de configurar todas las líneas VTY para que utilicen la misma ACL.</t>
+  </si>
+  <si>
+    <t>Las organizaciones pueden reducir el riesgo de acceso no autorizado mediante la implementación de listas de acceso para todas las líneas VTY. Por el contrario, el uso de líneas VTY sin listas de acceso aumenta el riesgo de acceso no autorizado.</t>
+  </si>
+  <si>
+    <t>Configure la ACL VTY que se utilizará para restringir el acceso de administración al dispositivo.</t>
+  </si>
+  <si>
+    <t>access-list &lt;vty_acl_number&gt; permit tcp &lt;vty_acl_block_with_mask&gt; any || access-list &lt;vty_acl_number&gt; permit tcp host &lt;vty_acl_host&gt; any || deny ip any any log</t>
+  </si>
+  <si>
+    <t>La configuración de 'access-class' restringe las conexiones entrantes y salientes entre un vty en particular (en un dispositivo Cisco) y los dispositivos de red asociados con direcciones en una lista de acceso.</t>
+  </si>
+  <si>
+    <t>La restricción del tipo de dispositivos de red, asociados con las direcciones de la lista de acceso, restringe aún más el acceso remoto a los dispositivos autorizados para administrar el dispositivo y reduce el riesgo de acceso no autorizado.</t>
+  </si>
+  <si>
+    <t>La aplicación de 'access-class' a la línea VTY restringe aún más el acceso remoto solo a aquellos dispositivos autorizados para administrar el dispositivo y reduce el riesgo de acceso no autorizado. Por el contrario, el uso de líneas VTY con restricciones de  'access-class' aumenta los riesgos de acceso no autorizado.</t>
+  </si>
+  <si>
+    <t>Configure las restricciones de control de acceso de administración remota para todas las líneas VTY.</t>
+  </si>
+  <si>
+    <t>line vty &lt;line-number&gt; &lt;ending-line-number&gt; || access-class &lt;vty_acl_number&gt; in</t>
+  </si>
+  <si>
+    <t>Si no se detecta ninguna entrada durante el intervalo, la función EXEC reanuda la conexión actual. Si no existen conexiones, la función EXEC devuelve el terminal al estado inactivo y desconecta la sesión entrante.</t>
+  </si>
+  <si>
+    <t>Esto evita que los usuarios no autorizados hagan un mal uso de las sesiones abandonadas. Por ejemplo, si el administrador de red se va por el día y deja un equipo abierto con una sesión de inicio de sesión habilitada accesible. Aquí hay una compensación entre la seguridad (tiempos de espera más cortos) y la usabilidad (tiempos de espera más largos). Revise sus políticas locales y necesidades operativas para determinar el mejor valor de tiempo de espera. En la mayoría de los casos, esto no debe ser más de 10 minutos.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben evitar el uso no autorizado de sesiones desatendidas o abandonadas por parte de un control automatizado. Habilitar el 'exec-timeout' con una duración adecuada de minutos o segundos evita el acceso no autorizado a las sesiones abandonadas.</t>
+  </si>
+  <si>
+    <t>Realice lo siguiente para determinar si el tiempo de espera está configurado: Compruebe que devuelve un resultado. Nota : si establece un tiempo de espera de ejecución de 10 minutos, esto no aparecerá en la configuración</t>
+  </si>
+  <si>
+    <t>line aux 0 || exec-timeout &lt;timeout_in_minutes&gt; &lt;timeout_in_seconds&gt;</t>
+  </si>
+  <si>
+    <t>line con 0 || exec-timeout &lt;timeout_in_minutes&gt; &lt;timeout_in_seconds&gt;</t>
+  </si>
+  <si>
+    <t>line tty {line_number} [ending_line_number] || exec-timeout &lt;timeout_in_minutes&gt; &lt;timeout_in_seconds&gt;</t>
+  </si>
+  <si>
+    <t>Los puertos no utilizados deben deshabilitarse, si no es necesario, ya que proporcionan una ruta de acceso potencial para los atacantes.</t>
+  </si>
+  <si>
+    <t>Algunos dispositivos incluyen un puerto auxiliar y de consola que se puede utilizar para conectarse localmente y configurar el dispositivo. El puerto de consola es normalmente el puerto principal utilizado para configurar el dispositivo; incluso cuando se requiere administración remota de copias de seguridad a través del servidor de consola o hardware de teclado, video, mouse (KVM). El puerto auxiliar se utiliza principalmente para la administración de acceso telefónico a través de un módem externo; en su lugar, utilice otros métodos disponibles.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben evitar todo acceso no autorizado a los puertos auxiliares deshabilitando todos los protocolos mediante el comando 'transport input none'.</t>
+  </si>
+  <si>
+    <t>Deshabilite las conexiones entrantes en el puerto auxiliar.</t>
+  </si>
+  <si>
+    <t>line aux 0 || transport input none</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip http max-connections 2 ")</t>
+  </si>
+  <si>
+    <t>La administración de dispositivos incluye la capacidad de controlar el número de administradores y sesiones de administración que administran un dispositivo. Limitar el número de administradores y sesiones permitidos por administrador en función del tipo de cuenta, el rol o el tipo de acceso es útil para limitar los riesgos relacionados con los ataques de denegación de servicio (DoS).</t>
+  </si>
+  <si>
+    <t>Este requisito aborda las sesiones simultáneas para las cuentas administrativas y no aborda las sesiones simultáneas de un solo administrador a través de varias cuentas administrativas. El número máximo de períodos de sesiones simultáneos debe definirse en función de las necesidades de la misión y del entorno operacional de cada sistema. Como mínimo, se deben establecer límites para SSH, HTTPS, cuenta de último recurso y sesiones de cuenta raíz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las organizaciones deben evitar el exceso de sesiones de configuracion sobre los equipos , a fin de mitigar y controlar los accesos indeseados a los mismos. </t>
+  </si>
+  <si>
+    <t>Limitar la cantidad maximas de conexiones HTTP</t>
+  </si>
+  <si>
+    <t>ip http max-connections 2</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip http timeout-policy idle ")</t>
+  </si>
+  <si>
+    <t>Configure el tiempo de espera del dispositivo (10 minutos o menos) para desconectar las sesiones después de un tiempo de inactividad fijo.</t>
+  </si>
+  <si>
+    <t>ip http timeout-policy idle 600 life {nnnn} requests {nn}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^banner exec ")</t>
+  </si>
+  <si>
+    <t>Este comando especifica un mensaje que se mostrará cuando se cree un proceso EXEC (se activa una línea o se realiza una conexión entrante a un vty). Cuando un usuario se conecta a un equipo, el banner del mensaje del día (MOTD) aparece primero, seguido del banner de inicio de sesión y las indicaciones. Después de que el usuario inicie sesión en el enrutador, se mostrará el banner EXEC o el banner entrante, según el tipo de conexión. Para un inicio de sesión Telnet inverso, se mostrará el banner entrante. Para todas las demás conexiones, el router mostrará el banner EXEC.</t>
+  </si>
+  <si>
+    <t>Los banners de red son mensajes electrónicos que proporcionan aviso de derechos legales a los usuarios de redes informáticas. Desde un punto de vista legal, los banners tienen cuatro funciones principales. * En primer lugar, los banners pueden utilizarse para generar el consentimiento para el monitoreo en tiempo real bajo el Título III.  En segundo lugar, los banners se pueden utilizar para generar el consentimiento para la recuperación de archivos y registros almacenados de conformidad con ECPA.  En tercer lugar, en el caso de las redes gubernamentales, los banners pueden eliminar cualquier "expectativa razonable de privacidad" de la Cuarta Enmienda que los empleados del gobierno u otros usuarios puedan retener en su uso de la red del gobierno bajo O'Connor v. Ortega, 480 U.S. 709 (1987).  Cuarto, en el caso de una red no gubernamental, los banners pueden establecer la "autoridad común" de un administrador del sistema para dar su consentimiento a una búsqueda policial de conformidad con El caso Estados Unidos c. Matlock, 415 U.S. 164 (1974)." (Apéndice A del Departamento de Justicia de los Estados Unidos: Ejemplo de lenguaje de banner de red)</t>
+  </si>
+  <si>
+    <t>Las organizaciones proporcionan avisos legales apropiados y advertencias a las personas que acceden a sus redes mediante el uso de un 'banner-text' para el comando banner exec.</t>
+  </si>
+  <si>
+    <t>Configure el banner de EXEC que se presenta a un usuario al acceder al mensaje de habilitación de dispositivos.  Ejecute este comando con uno o más espacios en blanco y un carácter delimitador de su elección. A continuación, introduzca una o más líneas de texto, terminando el mensaje con la segunda aparición del carácter delimitador</t>
+  </si>
+  <si>
+    <t>banner exec c Enter TEXT message. End with the character 'c'. &lt;banner-text&gt; c</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^banner login ")</t>
+  </si>
+  <si>
+    <t>Siga el comando de inicio de sesión del banner con uno o más espacios en blanco y un carácter delimitador de su elección. A continuación, introduzca una o más líneas de texto, terminando el mensaje con la segunda aparición del carácter delimitador. Cuando un usuario se conecta al enrutador, el banner del mensaje del día (MOTD) (si está configurado) aparece primero, seguido del banner de inicio de sesión y las indicaciones. Después de que el usuario inicie sesión correctamente en el enrutador, se mostrará el banner EXEC o el banner entrante, según el tipo de conexión. Para un inicio de sesión Telnet inverso, se mostrará el banner entrante. Para todas las demás conexiones, el router mostrará el banner EXEC.</t>
+  </si>
+  <si>
+    <t>Las organizaciones proporcionan avisos legales apropiados y advertencias a las personas que acceden a sus redes mediante el uso de un 'banner-text' para el comando banner login.</t>
+  </si>
+  <si>
+    <t>Configure el dispositivo para que se presente un banner de inicio de sesión a un usuario que intente acceder al dispositivo.</t>
+  </si>
+  <si>
+    <t>banner login c Enter TEXT message. End with the character 'c'. &lt;banner-text&gt; c</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^banner motd ")</t>
+  </si>
+  <si>
+    <t>This MOTD banner is displayed to all terminals connected and is useful for sending messages that affect all users (such as impending system shutdowns). Use the no exec-banner or no motd-banner command to disable the MOTD banner on a line. The no exec-banner command also disables the EXEC banner on the line.
+When a user connects to the router, the MOTD banner appears before the login prompt. After the user logs in to the router, the EXEC banner or incoming banner will be displayed, depending on the type of connection. For a reverse Telnet login, the incoming banner will be displayed. For all other connections, the router will display the EXEC banner.</t>
+  </si>
+  <si>
+    <t>Configure the message of the day (MOTD) banner presented when a user first connects to the device.</t>
+  </si>
+  <si>
+    <t>banner motd c Enter TEXT message. End with the character 'c'. &lt;banner-text&gt; c</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip admission auth-proxy-banner http ")</t>
+  </si>
+  <si>
+    <t>Este banner se muestra a todos los terminales conectados y es útil para enviar mensajes que afectan a todos los usuarios (como apagados inminentes del sistema). Utilice el comando no exec-banner o no motd-banner para deshabilitar el banner en una línea. El comando no exec-banner también deshabilita el banner EXEC en la línea. Cuando un usuario se conecta al router, el banner MOTD aparece antes del mensaje de inicio de sesión. Después de que el usuario inicie sesión en el enrutador, se mostrará el banner EXEC o el banner entrante, según el tipo de conexión. Para un inicio de sesión Telnet inverso, se mostrará el banner entrante. Para todas las demás conexiones, el router mostrará el banner EXEC.</t>
+  </si>
+  <si>
+    <t>Configure el banner webauth que se presenta cuando un usuario se conecta al dispositivo.</t>
+  </si>
+  <si>
+    <t>ip admission auth-proxy-banner http {banner-text | filepath}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^enable secret ")</t>
+  </si>
+  <si>
+    <t>Use the enable secret command to provide an additional layer of security over the enable password. The enable secret command provides better security by storing the enable secret password using a nonreversible cryptographic function. The added layer of security encryption provides is useful in environments where the password crosses the network or is stored on a TFTP server.</t>
+  </si>
+  <si>
+    <t>Requiring the enable secret setting protects privileged EXEC mode. By default, a strong password is not required, a user can just press the Enter key at the Password prompt to start privileged mode. The enable password command causes the device to enforce use of a password to access privileged mode. Enable secrets use a one-way cryptographic hash (MD5). This is preferred to Level 7 enable passwords that use a weak, well-known, and easily reversible encryption algorithm.</t>
+  </si>
+  <si>
+    <t>Organizations should protect privileged EXEC mode through policies requiring the 'enabling secret' setting, which enforces a one-way cryptographic hash (MD5).</t>
+  </si>
+  <si>
+    <t>Configure a strong, enable secret password.
+Note: You cannot recover a lost encrypted password. You must clear NVRAM and set a new password.</t>
+  </si>
+  <si>
+    <t>enable secret {ENABLE_SECRET_PASSWORD}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^service password-encryption ")</t>
+  </si>
+  <si>
+    <t>Cuando se habilita el cifrado de contraseñas, la forma cifrada de las contraseñas se muestra cuando se introduce un comando more system:running-config.</t>
+  </si>
+  <si>
+    <t>Esto requiere que las contraseñas se cifren en el archivo de configuración para evitar que los usuarios no autorizados aprendan las contraseñas con solo leer la configuración. Cuando no está habilitado, muchas de las contraseñas del dispositivo se representarán en texto sin formato en el archivo de configuración. Este servicio garantiza que las contraseñas se representen como cadenas cifradas, lo que impide que un atacante determine fácilmente el valor configurado.</t>
+  </si>
+  <si>
+    <t>Las organizaciones que implementan el "cifrado de contraseña de servicio" reducen el riesgo de que los usuarios no autorizados aprendan contraseñas de texto sin cifrar en los archivos de configuración de Cisco IOS. Sin embargo, el algoritmo utilizado no está diseñado para soportar un análisis serio y debe tratarse como texto claro.</t>
+  </si>
+  <si>
+    <t>Habilite el servicio de cifrado de contraseñas para proteger las contraseñas de acceso confidenciales en la configuración del dispositivo.  Nota: No puede recuperar una contraseña cifrada perdida. Debe borrar NVRAM y establecer una nueva contraseña.</t>
+  </si>
+  <si>
+    <t>service password-encryption</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ntp authenticate ")</t>
+  </si>
+  <si>
+    <t>Utilice el comando username secret para configurar un nombre de usuario y una contraseña de usuario cifrada con MD5. El cifrado MD5 es un método de cifrado fuerte que no es recuperable; por lo tanto, no puede utilizar el cifrado MD5 con protocolos que requieren contraseñas de texto sin cifrar, como el Protocolo de autenticación por desafío y protocolo de enlace (CHAP). El comando username secret proporciona una capa adicional de seguridad sobre la contraseña de nombre de usuario. También proporciona una mejor seguridad al cifrar la contraseña utilizando el cifrado MD5 no reversible y almacenar el texto cifrado. La capa añadida de cifrado MD5 es útil en entornos en los que la contraseña cruza la red o se almacena en un servidor TFTP.</t>
+  </si>
+  <si>
+    <t>La configuración predeterminada del dispositivo no requiere una autenticación de usuario segura que permita el acceso sin restricciones a un atacante que pueda acceder al dispositivo. La creación de una cuenta local con una contraseña cifrada aplica la autenticación de inicio de sesión y proporciona un mecanismo de autenticación de reserva para la configuración en una lista de métodos con nombre en una situación en la que los servicios centralizados de autenticación, autorización y contabilidad no están disponibles.</t>
+  </si>
+  <si>
+    <t>Las organizaciones que implementan el "username secret" en toda su empresa reducen el riesgo de que los usuarios no autorizados obtengan acceso a los dispositivos Cisco IOS mediante la aplicación de un hash MD5 y el cifrado de las contraseñas de usuario.</t>
+  </si>
+  <si>
+    <t>Cree un usuario local con una contraseña cifrada y compleja (no fácil de adivinar).</t>
+  </si>
+  <si>
+    <t>username {{em}LOCAL_USERNAME{/em}} secret {{em}LOCAL_PASSWORD{/em}}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^snmp-server ")</t>
+  </si>
+  <si>
+    <t>Simple Network Management Protocol (SNMP) proporciona una interfaz basada en estándares para administrar y monitorear dispositivos de red. Si no está en uso, deshabilite el protocolo simple de administración de red (SNMP), el acceso de lectura y escritura.</t>
+  </si>
+  <si>
+    <t>El acceso de lectura SNMP permite la supervisión y gestión remotas del dispositivo.</t>
+  </si>
+  <si>
+    <t>Las organizaciones que no usan SNMP deben requerir que todos los servicios SNMP se deshabiliten ejecutando el comando 'no snmp-server'.</t>
+  </si>
+  <si>
+    <t>Deshabilite el acceso de lectura y escritura SNMP si no se usa para monitorear y/o administrar el dispositivo.</t>
+  </si>
+  <si>
+    <t>no snmp-server</t>
+  </si>
+  <si>
+    <t>Simple Network Management Protocol (SNMP) proporciona una interfaz basada en estándares para administrar y monitorear dispositivos de red. Una cadena de comunidad SNMP permite el acceso de solo lectura a todos los objetos.</t>
+  </si>
+  <si>
+    <t>La cadena de comunidad predeterminada "private" es bien conocida. El uso de una cadena de comunidad conocida y fácil de adivinar representa una amenaza para que un atacante pueda obtener acceso no autorizado al dispositivo sin esfuerzo.</t>
+  </si>
+  <si>
+    <t>Para reducir el riesgo de acceso no autorizado, las organizaciones deben deshabilitar la configuración predeterminada y fácil de adivinar, como la configuración 'privada' para la comunidad de servidores snmp.</t>
+  </si>
+  <si>
+    <t>Deshabilitar la cadena de comunidad SNMP predeterminada privada</t>
+  </si>
+  <si>
+    <t>no snmp-server community {private}</t>
+  </si>
+  <si>
+    <t>La cadena de comunidad predeterminada "public" es bien conocida. El uso de una cadena de comunidad conocida y fácil de adivinar representa una amenaza para que un atacante pueda obtener acceso no autorizado al dispositivo sin esfuerzo.</t>
+  </si>
+  <si>
+    <t>Deshabilitar la cadena de comunidad SNMP predeterminada pública</t>
+  </si>
+  <si>
+    <t>no snmp-server community {public}</t>
+  </si>
+  <si>
+    <t>Simple Network Management Protocol (SNMP) proporciona una interfaz basada en estándares para administrar y monitorear dispositivos de red. Especifica el acceso de lectura y escritura.Los equipos de administración autorizadas pueden recuperar y modificar objetos MIB.</t>
+  </si>
+  <si>
+    <t>La habilitación de lectura y escritura SNMP permite la administración remota del dispositivo. A menos que sea absolutamente necesario, no permita el acceso de escritura con protocolo de administración de red simple (SNMP).</t>
+  </si>
+  <si>
+    <t>Para reducir el riesgo de acceso no autorizado, las organizaciones deben deshabilitar el acceso de "escritura" SNMP para la comunidad de servidores snmp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deshabilite el acceso de escritura SNMP. </t>
+  </si>
+  <si>
+    <t>no snmp-server community {&lt;em&gt;write_community_string&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>Simple Network Management Protocol (SNMP) proporciona una interfaz basada en estándares para administrar y monitorear dispositivos de red. Esta característica especifica una lista de direcciones IP que pueden usar la cadena de comunidad para obtener acceso al agente SNMP.</t>
+  </si>
+  <si>
+    <t>Si no se aplican las ACL, cualquier persona con una cadena de comunidad SNMP válida puede potencialmente monitorear y administrar el enrutador. Se debe definir y aplicar una ACL para todo el acceso SNMP para limitar el acceso a un pequeño número de estaciones de administración autorizadas segmentadas en una zona de administración de confianza. Si es posible, utilice SNMPv3 que utiliza autenticación, autorización y privatización de datos (cifrado).</t>
+  </si>
+  <si>
+    <t>Para reducir el riesgo de acceso no autorizado, las organizaciones deben habilitar listas de control de acceso para todas las comunidades de servidores snmp y restringir el acceso a las zonas de administración de confianza adecuadas. Si es posible, implemente SNMPv3 para aplicar autenticación, autorización y privatización de datos (cifrado) para obtener beneficios adicionales para la organización.</t>
+  </si>
+  <si>
+    <t>Configure la cadena de comunidad SNMP autorizada y restrinja el acceso a los sistemas de administración autorizados.</t>
+  </si>
+  <si>
+    <t>snmp-server community &lt;&lt;em&gt;community_string&lt;/em&gt;&gt; ro {&lt;em&gt;snmp_access-list_number | &lt;span&gt;snmp_access-list_name&lt;/span&gt;&lt;/em&gt;&lt;span&gt;}&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>Simple Network Management Protocol (SNMP) proporciona una interfaz basada en estándares para administrar y monitorear dispositivos de red. Puede utilizar listas de acceso para controlar la transmisión de paquetes en una interfaz, controlar el acceso al Protocolo simple de administración de redes (SNMP) y restringir el contenido de las actualizaciones de enrutamiento. El software Cisco IOS deja de verificar la lista de acceso extendida después de que se produce una coincidencia.</t>
+  </si>
+  <si>
+    <t>Las ACL SNMP controlan qué direcciones están autorizadas para administrar y monitorear el dispositivo a través de SNMP. Si no se aplican las ACL, cualquier persona con una cadena de comunidad SNMP válida puede supervisar y administrar el enrutador. Se debe definir y aplicar una ACL para todas las cadenas de la comunidad SNMP para limitar el acceso a un pequeño número de estaciones de administración autorizadas segmentadas en una zona de administración de confianza.</t>
+  </si>
+  <si>
+    <t>Configure SNMP ACL para restringir el acceso al dispositivo desde estaciones de administración autorizadas segmentadas en una zona de administración de confianza.</t>
+  </si>
+  <si>
+    <t>access-list &lt;&lt;em&gt;snmp_acl_number&lt;/em&gt;&gt; permit &lt;&lt;em&gt;snmp_access-list&lt;/em&gt;&gt; hostname(config)#access-list deny any log</t>
+  </si>
+  <si>
+    <t>Simple Network Management Protocol (SNMP) proporciona una interfaz basada en estándares para administrar y monitorear dispositivos de red. Las notificaciones SNMP se pueden enviar como capturas a los sistemas de gestión autorizados.</t>
+  </si>
+  <si>
+    <t>Si SNMP está habilitado para la administración de dispositivos y se requieren alertas de dispositivos, asegúrese de que el dispositivo esté configurado para enviar capturas solo para autorizar sistemas de administración.</t>
+  </si>
+  <si>
+    <t>Las organizaciones que usan SNMP deben restringir el envío de mensajes SNMP solo a sistemas con nombre explícito para reducir el acceso no autorizado.</t>
+  </si>
+  <si>
+    <t>Configure la cadena de comunidad de capturas SNMP autorizada y restrinja el envío de mensajes a los sistemas de administración autorizados.</t>
+  </si>
+  <si>
+    <t>snmp-server host {ip_address} {trap_community_string} {notification-type}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^snmp-server enable traps ")</t>
+  </si>
+  <si>
+    <t>SNMP tiene la capacidad de enviar capturas.</t>
+  </si>
+  <si>
+    <t>Las organizaciones que usan SNMP deben restringir los tipos de capturas solo a las capturas con nombre explícito para reducir el tráfico no deseado. Habilitar capturas SNMP sin especificar el tipo de captura habilitará todos los tipos de capturas SNMP.</t>
+  </si>
+  <si>
+    <t>Habilite capturas SNMP.</t>
+  </si>
+  <si>
+    <t>snmp-server enable traps snmp authentication linkup linkdown coldstart</t>
+  </si>
+  <si>
+    <t>Simple Network Management Protocol (SNMP) proporciona una interfaz basada en estándares para administrar y monitorear dispositivos de red. Especifica la autenticación de un paquete con cifrado cuando se utiliza SNMPv3</t>
+  </si>
+  <si>
+    <t>SNMPv3 proporciona una seguridad mucho mejor con respecto a las versiones anteriores al ofrecer opciones de autenticación y cifrado de mensajes. Al configurar un usuario para SNMPv3, tiene la opción de utilizar una variedad de esquemas de cifrado, o ningún cifrado, para proteger los mensajes en tránsito. AES128 es el método de cifrado de fuerza mínima que debe implementarse.</t>
+  </si>
+  <si>
+    <t>Las organizaciones que usan SNMP pueden reducir significativamente los riesgos de acceso no autorizado mediante el uso de la configuración 'snmp-server group v3 priv' para cifrar los mensajes en tránsito.</t>
+  </si>
+  <si>
+    <t>Para cada grupo SNMPv3 creado en su router, agregue opciones de privacidad emitiendo el siguiente comando...</t>
+  </si>
+  <si>
+    <t>snmp-server group {&lt;em&gt;group_name&lt;/em&gt;} v3 priv</t>
+  </si>
+  <si>
+    <t>Simple Network Management Protocol (SNMP) proporciona una interfaz basada en estándares para administrar y monitorear dispositivos de red. Especifique el uso de un algoritmo AES mínimo de 128 bits para el cifrado cuando se utilice SNMPv3.</t>
+  </si>
+  <si>
+    <t>Las organizaciones que usan SNMP pueden reducir significativamente los riesgos de acceso no autorizado mediante el uso de la configuración 'snmp-server user' con los protocolos de autenticación y privacidad adecuados para cifrar los mensajes en tránsito.</t>
+  </si>
+  <si>
+    <t>Para cada usuario SNMPv3 creado en su router, agregue opciones de privacidad emitiendo el siguiente comando.</t>
+  </si>
+  <si>
+    <t>snmp-server user {user_name} {group_name} v3 auth sha {auth_password} priv aes 128 {priv_password} {acl_name_or_number}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^login block-for ")</t>
+  </si>
+  <si>
+    <t>Todos los parámetros de inicio de sesión están deshabilitados de forma predeterminada. Debe emitir el comando login block-for, que habilita la funcionalidad de inicio de sesión predeterminada, antes de usar cualquier otro comando de inicio de sesión. Después de habilitar el comando login block-for, se aplican los siguientes valores predeterminados: Un retraso de inicio de sesión predeterminado de un segundo Todos los intentos de inicio de sesión realizados a través de Telnet o SSH se deniega durante el período de silencio; es decir, ninguna ACL está exenta del período de inicio de sesión hasta que se emita el comando de clase de acceso en modo silencioso de inicio de sesión.</t>
+  </si>
+  <si>
+    <t>Si el número configurado de intentos de conexión falla dentro de un período de tiempo especificado, el dispositivo Cisco no aceptará ninguna conexión adicional durante un "período de silencio". (Los hosts permitidos por una lista de control de acceso [ACL] predefinida se excluyen del período de silencio). El número de intentos de conexión fallidos que desencadenan el período de silencio se puede especificar a través del nuevo comando de modo de configuración global login block-for . La ACL predefinida que se excluye del período de silencio se puede especificar a través del nuevo comando de modo de configuración global login quiet-mode access-class .</t>
+  </si>
+  <si>
+    <t>Las organizaciones que utilizan las caracteristicas de Login Block evitan accesos a sus equipos mediante el metodo de "fuerza bruta", a traves el cual , dados sucesivos reintentos con diferentes claves, se trata de obtener acceso de gestion a equipamiento de networking.</t>
+  </si>
+  <si>
+    <t>Todos los intentos de inicio de sesión realizados a través de Telnet o SSH son denegados durante el período de silencio; es decir, ninguna ACL está exenta del período de inicio de sesión hasta que se emita el comando login quiet-mode access-class</t>
+  </si>
+  <si>
+    <t>login block-for {**seconds**} attempts {**tries**} within {**seconds**</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^auto secure ")</t>
+  </si>
+  <si>
+    <t>La función AutoSecure protege un enrutador mediante el uso de un solo comando CLI para deshabilitar los servicios IP comunes que se pueden explotar para ataques de red, habilitar servicios IP y características que pueden ayudar en la defensa de una red cuando está bajo ataque, y simplificar y reforzar la configuración de seguridad del enrutador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Después de habilitar esta función (a través del comando AutoSecure), los siguientes servicios globales se deshabilitan en el enrutador sin preguntarle al usuario:
+Finger: recopila información sobre el sistema (reconocimiento) antes de un ataque. Si está habilitada, la información puede dejar su dispositivo vulnerable a ataques.
+PAD: habilita todos los comandos y conexiones del ensamblador y desensamblador de paquetes (PAD) entre los dispositivos PAD y los servidores de acceso. Si está habilitado, puede dejar su dispositivo vulnerable a los ataques.
+Servidores pequeños: provoca ataques de puerto de diagnóstico TCP y User Datagram Protocol (UDP): un remitente transmite un volumen de solicitudes falsas de servicios de diagnóstico UDP en el enrutador, consumiendo todos los recursos de la CPU. Bootp Server: Bootp es un protocolo inseguro que puede explotarse para un ataque.
+Servidor HTTP: sin http seguro o autenticación integrada en el servidor HTTP con una ACL asociada, el servidor HTTP es inseguro y puede ser explotado para un ataque. (Si debe habilitar el servidor HTTP, se le solicitará la autenticación adecuada o la lista de acceso). Servicio de identificación: un protocolo inseguro, definido en RFC 1413, que permite consultar un puerto TCP para su identificación. Un atacante puede acceder a información privada sobre el usuario desde el servidor de ID.
+CDP: si se envía una gran cantidad de paquetes del Protocolo de descubrimiento de Cisco (CDP) al enrutador, la memoria disponible del enrutador se puede consumir, lo que hace que el enrutador falle. NTP: sin autenticación o control de acceso, el protocolo de tiempo de red (NTP) es inseguro y un atacante puede usarlo para enviar paquetes NTP para bloquear o sobrecargar el enrutador. (Si desea activar NTP, debe configurar la autenticación NTP mediante Message Digest 5 (MD5) y el comando ntp access-group. Si NTP está habilitado globalmente, deshabilítelo en todas las interfaces en las que no es necesario).
+Enrutamiento de origen: se proporciona solo con fines de depuración, por lo que el enrutamiento de origen debe desactivarse en todos los demás casos. De lo contrario, los paquetes pueden escaparse de algunos de los mecanismos de control de acceso por los que deberían haber pasado. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Después de habilitar esta función, las siguientes opciones para asegurar el acceso al enrutador están disponibles para el usuario:
+Si no existe un banner de texto, se solicita a los usuarios que agreguen un banner. Esta función proporciona el siguiente banner de muestra:
+Solo acceso autorizado Este sistema es propiedad de Empresa ABC  ¡Desconecte INMEDIATAMENTE si no es un usuario autorizado! Póngase en contacto con abc@xyz.com +54 11 45543210 para obtener ayuda. El inicio de sesión y la contraseña (preferiblemente una contraseña secreta, si es compatible) se configuran en las líneas de la consola, AUX, vty y tty. Los comandos de entrada de transporte y salida de transporte también se configuran en todas estas líneas. (Telnet y Secure Shell (SSH) son los únicos métodos de transporte válidos). El comando exec-timeout se configura en la consola y AUX como 10.
+Cuando la imagen del dispositivo es una imagen criptográfica, AutoSecure habilita SSH y copia segura (SCP) para el acceso y la transferencia de archivos hacia y desde el enrutador. Los segundos de tiempo de espera y las opciones de números enteros de reintentos de autenticación para el comando ip ssh se configuran en un número mínimo. (Telnet y FTP no se ven afectados por esta operación y permanecen operativos).
+Si el usuario de AutoSecure especifica que su dispositivo no usa el Protocolo simple de administración de red (SNMP), ocurre una de las siguientes funciones: En el modo interactivo, se le pregunta al usuario si deshabilita SNMP independientemente de los valores de las cadenas de comunidad, que actúan como contraseñas para regular el acceso al agente en el enrutador. En el modo sin interacción, SNMP está deshabilitado si la cadena de comunidad es "pública" o "privada". </t>
+  </si>
+  <si>
+    <t>Configure AutoSecure</t>
+  </si>
+  <si>
+    <t>auto secure {management | forwarding} {no-interact | full} {ntp | login | ssh |firewall | tcp-intercept} ||enable password {password | [encryption-type ] encrypted-password } || security authentication failure rate {**threshold-rate**} log</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^kerberos server ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerberos es un protocolo de autenticación de red de clave secreta. Kerberos fue diseñado para autenticar solicitudes de recursos de red. Kerberos, al igual que otros sistemas de clave secreta, se basa en el concepto de un tercero de confianza que realiza una verificación segura de los usuarios y los servicios. En el protocolo Kerberos, este tercero de confianza se denomina centro de distribución de claves (KDC).
+El uso principal de Kerberos es verificar que los usuarios y los servicios de red que utilizan sean realmente quienes y lo que dicen ser. Para lograr esto, un servidor Kerberos confiable emite tickets a los usuarios. Estos tickets, que tienen una vida útil limitada, se almacenan en la memoria caché de credenciales de un usuario y se pueden usar en lugar del mecanismo de autenticación estándar de nombre de usuario y contraseña.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El primer paso en el proceso de autenticación Kerberos es que los usuarios se autentiquen en el enrutador de límite. El siguiente proceso describe cómo los usuarios se autentican en un enrutador de límites:
+El esquema de credenciales de Kerberos incorpora un concepto llamado "inicio de sesión único". Este proceso requiere autenticar a un usuario una vez y luego permite la autenticación segura (sin encriptar otra contraseña) dondequiera que se acepte la credencial de ese usuario.
+Los siguientes servicios de red son compatibles con las capacidades de autenticación Kerberos en el software Cisco IOS XE: Telnet / rlogin / rsh / rcp </t>
+  </si>
+  <si>
+    <t>Un usuario remoto que inicia correctamente una sesión PPP y se autentica en el enrutador de límite está dentro del firewall, pero aún debe autenticarse en el KDC directamente antes de que se le permita acceder a los servicios de red. Esto se debe a que el TGT emitido por el KDC se almacena en el enrutador y no es útil para la autenticación adicional a menos que el usuario inicie sesión físicamente en el enrutador.
+El software Cisco IOS XE incluye compatibilidad con Kerberos 5, que permite a las organizaciones que ya están implementando Kerberos 5 usar la misma base de datos de autenticación Kerberos en sus dispositivos que ya están usando en sus otros hosts de red (como servidores UNIX y PC).</t>
+  </si>
+  <si>
+    <t>*Agregar usuarios a la base de datos KDC *Crear SRVTAB en el KDC *Realizar entradas para todos los servicios de red en todos los hosts Kerberized que utilizan este KDC para la autenticación.  *Definición de un reino Kerberos</t>
+  </si>
+  <si>
+    <t>show kerberos cred
+ank {username@REALM}
+ank {username/instance@REALM
+ark {SERVICE/HOSTNAME@REALM}
+kerberos local-realm {kerberos-realm} (config)kerberos server {kerberos-realm {hostname | ip-address}} {port-number} || (config)kerberos realm {dns-domain | host} {kerberos-realm}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip admission name ")</t>
+  </si>
+  <si>
+    <t>La autenticación basada en web es una característica de solo entrada. Puede configurar la autenticación basada en web solo en los puertos de acceso. La autenticación basada en web no se admite en puertos troncales, puertos miembro de EtherChannel o puertos troncales dinámicos. No se admite la autenticación web externa, en la que el conmutador redirige un cliente a un host o servidor web determinado para mostrar un mensaje de inicio de sesión. No puede autenticar hosts en interfaces de capa 2 con asignación de caché ARP estática. La característica de autenticación basada en web no detecta estos hosts porque no envían mensajes ARP. La autenticación basada en web no admite la asignación de VLAN como directiva de host descargable. La autenticación basada en web y la topología de acceso perimetral de red (NEAT) se excluyen mutuamente. No puede utilizar la autenticación basada en web cuando NEAT está habilitado en una interfaz, y no puede utilizar NEAT cuando la autenticación basada en web se ejecuta en una interfaz. Identifique las siguientes opciones del servidor de seguridad RADIUS que se utilizarán al configurar la comunicacion switch-to-RADIUS-server:
+Hostname y numeros especificos de puertos UDP
+Direcciones IP.</t>
+  </si>
+  <si>
+    <t>La combinación de la dirección IP y el número de puerto UDP crea un identificador único que permite que las solicitudes RADIUS se envíen a varios puertos UDP en un servidor con la misma dirección IP. Si se configuran dos entradas de host diferentes en el mismo servidor RADIUS para el mismo servicio (por ejemplo, autenticación), la segunda entrada de host configurada funciona como la copia de seguridad de conmutación por error de la primera. Las entradas del host RADIUS se eligen en el orden en que se configuraron.</t>
+  </si>
+  <si>
+    <t>El proxy de autenticación es una característica de autenticación de entrada que concede acceso a un usuario final (fuera de una interfaz) solo si el usuario envía credenciales de nombre de usuario y contraseña válidas para un tráfico de entrada destinado a los protocolos HTTP, Telnet o FTP. Una vez comprobadas las credenciales de autenticación enviadas con las credenciales configuradas en un servidor de autenticación, autorización y contabilidad (AAA), se concede acceso al solicitante (dirección IP de origen).</t>
+  </si>
+  <si>
+    <t>Debe habilitar el seguimiento de dispositivos basado en SISF para utilizar la autenticación basada en web. De forma predeterminada, el seguimiento de dispositivos basado en SISF está deshabilitado en un conmutador. Debe configurar al menos una dirección IP para ejecutar el servidor HTTP del dispositivo. También debe configurar rutas para llegar a cada dirección IP del host. El servidor HTTP envía la página de inicio de sesión HTTP al host. Los hosts que están a más de un salto de distancia pueden experimentar interrupciones en el tráfico si un cambio en la topología STP hace que el tráfico del host llegue a un puerto diferente. Esto ocurre porque es posible que las actualizaciones de ARP y DHCP no se envíen después de un cambio de topología de capa 2 (STP).</t>
+  </si>
+  <si>
+    <t>ip admission name {Name} proxy http || interface {type slot/port} || ip access-group {Name}|| ip admission name ||ip admission max-login-attempts {number}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^hostname ")</t>
+  </si>
+  <si>
+    <t>El nombre de host se utiliza en los mensajes y en los nombres de archivo de configuración predeterminados.</t>
+  </si>
+  <si>
+    <t>El nombre de equipo es un requisito previo para configurar SSH.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar la red empresarial e identificar un nombre de host apropiado para cada equipo.</t>
+  </si>
+  <si>
+    <t>Configure un nombre de host adecuado para el equipo.</t>
+  </si>
+  <si>
+    <t>hostname {&lt;em&gt;router_name&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip domain-name ")</t>
+  </si>
+  <si>
+    <t>Definir un nombre de dominio predeterminado que el software Cisco IOS utiliza para completar nombres de host no calificados</t>
+  </si>
+  <si>
+    <t>El nombre de dominio es un requisito previo para configurar SSH.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar la red empresarial e identificar un nombre de dominio apropiado para el enrutador.</t>
+  </si>
+  <si>
+    <t>Configure un nombre de dominio adecuado para el equipo.</t>
+  </si>
+  <si>
+    <t>ip domain-name {&lt;em&gt;domain-name&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^crypto key ")</t>
+  </si>
+  <si>
+    <t>Establezca un 'modulus' mayor o igual a 2048 para 'crypto key generate rsa'. Las claves RSA se generan en pares: una clave RSA pública y una clave RSA privada.</t>
+  </si>
+  <si>
+    <t>Un par de claves RSA es un requisito previo para configurar SSH y debe tener al menos 2048 bits. NOTA: IOS NO muestra el valor de bit de modulus en el procedimiento de auditoría.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar la criptografía de red empresarial y generar pares de claves RSA apropiados, como 'modulus', mayor o igual que 2048.</t>
+  </si>
+  <si>
+    <t>Genere un par de claves RSA para el router.</t>
+  </si>
+  <si>
+    <t>crypto key generate rsa general-keys modulus &lt;em&gt;2048&lt;/em&gt;</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip ssh time-out ")</t>
+  </si>
+  <si>
+    <t>El intervalo de tiempo que el enrutador espera a que el cliente SSH responda antes de desconectar un intento de inicio de sesión no completado.</t>
+  </si>
+  <si>
+    <t>Esto reduce el riesgo de que un administrador deje una sesión autenticada iniciada durante un período prolongado de tiempo.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben implementar una directiva de seguridad que requiera una configuración de tiempo de espera mínimo para todos los administradores de red y aplicar la directiva a través del comando 'ip ssh timeout'.</t>
+  </si>
+  <si>
+    <t>Configure el tiempo de espera de SSH. Esto no puede exceder los 120 segundos.</t>
+  </si>
+  <si>
+    <t>ip ssh time-out [&lt;em&gt;60&lt;/em&gt;]</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip ssh authentication-retries ")</t>
+  </si>
+  <si>
+    <t>El número de reintentos antes de que se desconecte la sesión de inicio de sesión SSH.</t>
+  </si>
+  <si>
+    <t>Esto limita el número de veces que un usuario no autorizado puede intentar una contraseña sin tener que establecer un nuevo intento de inicio de sesión SSH. Esto reduce el potencial de éxito durante los ataques de fuerza bruta en línea al limitar el número de intentos de inicio de sesión por conexión SSH.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben implementar una directiva de seguridad que limite el número de intentos de autenticación para los administradores de red y aplicar la directiva a través del comando 'ip ssh authentication-retries'.</t>
+  </si>
+  <si>
+    <t>Configure los reintentos SSH .</t>
+  </si>
+  <si>
+    <t>ip ssh authentication-retries [&lt;em&gt;3&lt;/em&gt;]</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip ssh version 2e ")</t>
+  </si>
+  <si>
+    <t>Especifique la versión de Secure Shell (SSH) que se ejecutará en un router.</t>
+  </si>
+  <si>
+    <t>SSH Versión 1 ha estado sujeto a una serie de vulnerabilidades graves y ya no se considera un protocolo seguro, lo que resultó en la adopción de SSH Versión 2 como un estándar de Internet en 2006. Los routers/switches Cisco soportan ambas versiones, pero debido a la debilidad de SSH Versión 1 solo se debe usar el estándar posterior.</t>
+  </si>
+  <si>
+    <t>Para reducir el riesgo de acceso no autorizado, las organizaciones deben implementar una política de seguridad para revisar sus protocolos actuales para garantizar que se utilicen las versiones de protocolo más seguras.</t>
+  </si>
+  <si>
+    <t>Configurar el router para utilizar SSH versión 2</t>
+  </si>
+  <si>
+    <t>ip ssh version 2</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^cdp run ")</t>
+  </si>
+  <si>
+    <t>Deshabilite el servicio Cisco Discovery Protocol (CDP) a nivel de dispositivo.</t>
+  </si>
+  <si>
+    <t>El Cisco Discovery Protocol es un protocolo propietario que los dispositivos Cisco utilizan para identificarse entre sí en un segmento LAN. Es útil solo en situaciones de monitoreo y solución de problemas de red, pero se considera un riesgo de seguridad debido a la cantidad de información proporcionada por las consultas. Además, se han publicado ataques de denegación de servicio (DoS) que utilizan CDP. CDP debe estar completamente deshabilitado a menos que sea necesario.</t>
+  </si>
+  <si>
+    <t>Para reducir el riesgo de acceso no autorizado, las organizaciones deben implementar una política de seguridad que restrinja los protocolos de red y exigir explícitamente la desactivación de todos los protocolos inseguros o innecesarios.</t>
+  </si>
+  <si>
+    <t>Deshabilite el servicio Cisco Discovery Protocol (CDP) globalmente. Habilitado en todas las plataformas excepto en el Cisco 10000 Series Edge Services Router</t>
+  </si>
+  <si>
+    <t>no cdp run</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip dhcp bootp ")</t>
+  </si>
+  <si>
+    <t>Deshabilite el servicio De protocolo de arranque (BOOTP) en el dispositivo Cisco.</t>
+  </si>
+  <si>
+    <t>BootP permite que un router emita direcciones IP. Esto debe deshabilitarse a menos que haya un requisito específico.</t>
+  </si>
+  <si>
+    <t>Para reducir el riesgo de acceso no autorizado, las organizaciones deben implementar una política de seguridad que restrinja los protocolos de red y exigir explícitamente la desactivación de todos los protocolos inseguros o innecesarios, como el "ip boot server".</t>
+  </si>
+  <si>
+    <t>Deshabilite el bootp server.</t>
+  </si>
+  <si>
+    <t>ip dhcp bootp ignore</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^service dhcp ")</t>
+  </si>
+  <si>
+    <t>Deshabilite las características del servidor y del agente de retransmisión del Protocolo de configuración dinámica de host (DHCP) en el dispositivo.</t>
+  </si>
+  <si>
+    <t>El servidor DHCP proporciona parámetros de configuración automática, como la dirección IP dinámica, a los sistemas solicitantes. En su lugar, se debe utilizar un servidor dedicado ubicado en una zona de administración segura para proporcionar servicios DHCP. Los atacantes pueden ser potencialmente utilizados para ataques de denegación de servicio (DoS).</t>
+  </si>
+  <si>
+    <t>Para reducir el riesgo de acceso no autorizado, las organizaciones deben implementar una política de seguridad que restrinja los protocolos de red y exigir explícitamente la desactivación de todos los protocolos inseguros o innecesarios, como el Protocolo de configuración dinámica de host (DHCP).</t>
+  </si>
+  <si>
+    <t>Deshabilite el servidor DHCP. Habilitado de forma predeterminada, pero también requiere que se establezca un grupo DHCP para activar el servidor DHCP.</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;no service dhcp&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip identd ")</t>
+  </si>
+  <si>
+    <t>Deshabilite el servidor de identificación (identd).</t>
+  </si>
+  <si>
+    <t>El protocolo de identificación permite identificar la sesión del protocolo de control de transmisión (TCP) de un usuario. Esta divulgación de información podría proporcionar a un atacante información sobre los usuarios.</t>
+  </si>
+  <si>
+    <t>Para reducir el riesgo de acceso no autorizado, las organizaciones deben implementar una política de seguridad que restrinja los protocolos de red y exigir explícitamente la desactivación de todos los protocolos inseguros o innecesarios, como el protocolo de identificación (identd).</t>
+  </si>
+  <si>
+    <t>Deshabilite el ident server.</t>
+  </si>
+  <si>
+    <t>no ip identd</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^service tcp-keepalives-in ")</t>
+  </si>
+  <si>
+    <t>Genere paquetes keepalive en conexiones de red entrantes inactivas.</t>
+  </si>
+  <si>
+    <t>Las conexiones obsoletas utilizan recursos y podrían ser secuestradas para obtener acceso ilegítimo. El servicio tcp keepalives-in genera paquetes keepalive en conexiones de red entrantes inactivas (iniciadas por un host remoto). Este servicio permite que el dispositivo detecte cuando el host remoto falla y elimine la sesión. Si está habilitado, los keepalives se envían una vez por minuto en conexiones inactivas. La conexión se cierra en cinco minutos si no se reciben keepalives o inmediatamente si el host responde con un paquete de reinicio.</t>
+  </si>
+  <si>
+    <t>Para reducir el riesgo de acceso no autorizado, las organizaciones deben implementar una política de seguridad que restrinja el tiempo que debe permitir las sesiones terminadas y hacer cumplir esta política mediante el uso del comando 'tcp-keepalives-in'.</t>
+  </si>
+  <si>
+    <t>Habilite el servicio TCP keepalives-in.</t>
+  </si>
+  <si>
+    <t>service tcp-keepalives-in</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^service tcp-keepalives-out ")</t>
+  </si>
+  <si>
+    <t>Genere paquetes keepalive en conexiones de red salientes inactivas.</t>
+  </si>
+  <si>
+    <t>Las conexiones obsoletas utilizan recursos y podrían ser secuestradas para obtener acceso ilegítimo. El servicio tcp keepalives-in genera paquetes keepalive en conexiones de red entrantes inactivas (iniciadas por un host remoto). Este servicio permite que el dispositivo detecte cuando el host remoto falla y elimine la sesión. Si está habilitado, los keepalives se envían una vez por minuto en conexiones inactivas. La conexión de cierre se cierra en cinco minutos si no se reciben keepalives o inmediatamente si el host responde con un paquete de reinicio.</t>
+  </si>
+  <si>
+    <t>Para reducir el riesgo de acceso no autorizado, las organizaciones deben implementar una política de seguridad que restrinja el tiempo que debe permitir las sesiones terminadas y hacer cumplir esta política mediante el uso del comando 'tcp-keepalives-out'.</t>
+  </si>
+  <si>
+    <t>Habilite el servicio TCP keepalives-out.</t>
+  </si>
+  <si>
+    <t>service tcp-keepalives-out</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^service pad ")</t>
+  </si>
+  <si>
+    <t>Deshabilite el servicio X.25 Packet Assembler/Disassembler (PAD).</t>
+  </si>
+  <si>
+    <t>Si el servicio PAD no es necesario, deshabilite el servicio para evitar que los intrusos accedan al comando PAD X.25 establecido en el dispositivo.</t>
+  </si>
+  <si>
+    <t>Para reducir el riesgo de acceso no autorizado, las organizaciones deben implementar una política de seguridad que restrinja servicios innecesarios como el servicio 'PAD'.</t>
+  </si>
+  <si>
+    <t>Deshabilite el servicio PAD. Habilitado de forma predeterminada.</t>
+  </si>
+  <si>
+    <t>no service pad</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^logging on ")</t>
+  </si>
+  <si>
+    <t>Habilite el registro de mensajes del sistema. Habilite el registro del sistema para incluir información detallada, como un origen de eventos, fecha, usuario, marca de tiempo, direcciones de origen, direcciones de destino y otros elementos útiles.</t>
+  </si>
+  <si>
+    <t>El registro proporciona un registro cronológico de las actividades en el dispositivo Cisco y permite el monitoreo de eventos operativos y relacionados con la seguridad.</t>
+  </si>
+  <si>
+    <t>La habilitación del comando Cisco IOS 'logging enable' aplica la supervisión de los riesgos tecnológicos para los dispositivos de red de las organizaciones.</t>
+  </si>
+  <si>
+    <t>Habilite el registro del sistema. El registro no está habilitado de forma predeterminada.</t>
+  </si>
+  <si>
+    <t>archive 
+log config 
+logging enable 
+end</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^logging buffered ")</t>
+  </si>
+  <si>
+    <t>Habilite el registro de mensajes del sistema en un búfer local. Habilite el registro del sistema para incluir información detallada, como un origen de eventos, fecha, usuario, marca de tiempo, direcciones de origen, direcciones de destino y otros elementos útiles.</t>
+  </si>
+  <si>
+    <t>El dispositivo puede copiar y almacenar mensajes de registro en un búfer de memoria interna. Los datos en búfer solo están disponibles desde un ejecutivo del enrutador o una sesión ejecutiva habilitada. Esta forma de registro es útil para la depuración y el monitoreo cuando se inicia sesión en un enrutador.</t>
+  </si>
+  <si>
+    <t>El análisis forense de datos es eficaz para gestionar los riesgos tecnológicos y una organización puede aplicar dichas políticas habilitando el comando 'logging buffered'.</t>
+  </si>
+  <si>
+    <t>Configure el registro en búfer (con un tamaño mínimo). El tamaño recomendado es 256000.</t>
+  </si>
+  <si>
+    <t>logging buffered [&lt;em&gt;log_buffer_size&lt;/em&gt;]</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^logging console ")</t>
+  </si>
+  <si>
+    <t>Verifique que el registro en la consola del dispositivo esté habilitado y limitado a un nivel de gravedad racional para evitar afectar el rendimiento y la administración del sistema. Habilite el registro del sistema para incluir información detallada, como un origen de eventos, fecha, usuario, marca de tiempo, direcciones de origen, direcciones de destino y otros elementos útiles.</t>
+  </si>
+  <si>
+    <t>Esta configuración determina la gravedad de los mensajes que generarán mensajes de consola. El inicio de sesión en la consola debe limitarse solo a los mensajes necesarios para la solución inmediata de problemas mientras se inicia sesión en el dispositivo. Esta forma de registro no es persistente; los mensajes impresos en la consola no son almacenados por el router. El registro de la consola es útil para los operadores cuando utilizan la consola.</t>
+  </si>
+  <si>
+    <t>El registro de mensajes críticos en la consola es importante para una organización que gestiona el riesgo tecnológico. El comando 'logging console' debe capturar los mensajes de gravedad apropiados para ser efectivo.</t>
+  </si>
+  <si>
+    <t>Configure el nivel de registro de la consola. La consola es un dispositivo de visualización lenta. En las tormentas de mensajes, algunos mensajes de registro pueden eliminarse silenciosamente cuando la cola de la consola se llena. Establezca los niveles de gravedad en consecuencia.</t>
+  </si>
+  <si>
+    <t>logging console critical</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^logging host ")</t>
+  </si>
+  <si>
+    <t>Registre los mensajes del sistema y depure la salida en un host remoto. Habilite el registro del sistema para incluir información detallada, como un origen de eventos, fecha, usuario, marca de tiempo, direcciones de origen, direcciones de destino y otros elementos útiles.</t>
+  </si>
+  <si>
+    <t>Los routers Cisco pueden enviar sus mensajes de registro a un servicio Syslog de estilo Unix. Un servicio syslog simplemente acepta mensajes y los almacena en archivos o los imprime de acuerdo con un archivo de configuración simple. Esta forma de registro es la mejor porque puede proporcionar almacenamiento protegido a largo plazo para los registros (el búfer de registro interno de los dispositivos tiene una capacidad limitada para almacenar eventos). Además, el inicio de sesión en un sistema externo es muy recomendable o requerido por la mayoría de los estándares de seguridad. Si lo desea o lo requiere la política, la ley y / o la regulación, habilite un segundo servidor syslog para la redundancia.</t>
+  </si>
+  <si>
+    <t>El registro es un proceso importante para una organización que gestiona el riesgo tecnológico. El comando 'logging host' establece la dirección IP del host de registro y aplica el proceso de registro. Los mensajes de registro del sistema no se envían a ningún host remoto.</t>
+  </si>
+  <si>
+    <t>Designe uno o más servidores syslog por dirección IP. Implemente la gestión de eventos e información de seguridad (SIEM) o una herramienta de análisis de registros para la correlación y el análisis de registros.</t>
+  </si>
+  <si>
+    <t>logging host {syslog_server}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^logging trap ")</t>
+  </si>
+  <si>
+    <t>Limite los mensajes registrados en los servidores syslog en función de la información del nivel de gravedad. Habilite el registro del sistema para incluir información detallada, como un origen de eventos, fecha, usuario, marca de tiempo, direcciones de origen, direcciones de destino y otros elementos útiles.</t>
+  </si>
+  <si>
+    <t>Esto determina la gravedad de los mensajes que generarán mensajes de captura de protocolo de administración de red simple (SNMP) y/o syslog. Esta configuración debe establecerse en "depuración" (7) o "informativa" (6), pero no inferior.</t>
+  </si>
+  <si>
+    <t>El registro es un proceso importante para una organización que gestiona el riesgo tecnológico. El comando 'logging trap' establece la gravedad de los mensajes y aplica el proceso de registro.</t>
+  </si>
+  <si>
+    <t>Configure el nivel de captura SNMP y registro de syslog.</t>
+  </si>
+  <si>
+    <t>logging trap informational</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^service timestamps ")</t>
+  </si>
+  <si>
+    <t>Configure el sistema para que aplique una marca de tiempo a los mensajes de depuración o a los mensajes de registro del sistema. Habilite el registro del sistema para incluir información detallada, como un origen de eventos, fecha, usuario, marca de tiempo, direcciones de origen, direcciones de destino y otros elementos útiles.</t>
+  </si>
+  <si>
+    <t>La inclusión de marcas de tiempo en los mensajes de registro permite correlacionar eventos y rastrear ataques de red en múltiples dispositivos. Habilitar la marca de tiempo del servicio para marcar la hora en que se generaron los mensajes de registro simplifica la obtención de una visión holística de los eventos, lo que permite una solución más rápida de problemas o ataques.</t>
+  </si>
+  <si>
+    <t>El registro es un proceso importante para una organización que gestiona el riesgo tecnológico y el establecimiento de un cronograma de eventos es fundamental. El comando 'service timestamps' establece la fecha y la hora de las entradas enviadas al host de registro y aplica el proceso de registro.</t>
+  </si>
+  <si>
+    <t>Configure los mensajes de depuración para incluir marcas de tiempo.</t>
+  </si>
+  <si>
+    <t>service timestamps debug datetime {&lt;em&gt;msec&lt;/em&gt;} show-timezone</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^logging source-interface ")</t>
+  </si>
+  <si>
+    <t>Especifique la dirección IPv4 o IPv6 de origen de los paquetes de registro del sistema</t>
+  </si>
+  <si>
+    <t>Esto es necesario para que el enrutador envíe mensajes de registro al servidor de registro desde una dirección IP coherente.</t>
+  </si>
+  <si>
+    <t>El registro es un proceso importante para una organización que gestiona el riesgo tecnológico y es fundamental establecer una fuente coherente de mensajes para el host de registro. El comando 'logging source interface loopback' establece una dirección IP coherente para enviar mensajes al host de registro y aplica el proceso de registro.</t>
+  </si>
+  <si>
+    <t>Enlazar el registro a la interfaz de loopback.</t>
+  </si>
+  <si>
+    <t>logging source-interface loopback {&lt;em&gt;loopback_interface_number&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^login on-failure log ")</t>
+  </si>
+  <si>
+    <t>Sin generar registros de auditoría que sean específicos para las necesidades de seguridad y misión de la organización, sería difícil establecer, correlacionar e investigar los eventos relacionados con un incidente o identificar a los responsables de uno.</t>
+  </si>
+  <si>
+    <t>Los registros de auditoría se pueden generar a partir de varios componentes dentro del sistema de información (por ejemplo, módulo o filtro de políticas).</t>
+  </si>
+  <si>
+    <t>El registro es un proceso importante para una organización que gestiona el riesgo tecnológico y es fundamental establecer una fuente coherente de mensajes para el host de registro. El comando 'login on-failure log' genera un evento en cada login fallido para enviar al host de registro y aplica el proceso de registro.</t>
+  </si>
+  <si>
+    <t>Configure los eventos de logueo para ingresos exitosos y fallidos.</t>
+  </si>
+  <si>
+    <t>login on-failure log 
+login on-success log 
+end</t>
+  </si>
+  <si>
+    <t>Habilite la autenticacion NTP .</t>
+  </si>
+  <si>
+    <t>El uso de NTP autenticado garantiza que el dispositivo Cisco solo permita actualizaciones de tiempo desde servidores NTP autorizados.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben establecer tres hosts de Protocolo de tiempo de red (NTP) para establecer un tiempo coherente en toda la empresa. Al habilitar el comando 'ntp authenticate' se aplica la autenticación entre hosts NTP.</t>
+  </si>
+  <si>
+    <t>Configurar la autenticación NTP:</t>
+  </si>
+  <si>
+    <t>ntp authenticate</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ntp authentication-key ")</t>
+  </si>
+  <si>
+    <t>Defina una clave de autenticación para el Protocolo de tiempo de red (NTP).</t>
+  </si>
+  <si>
+    <t>El uso de una clave de autenticación proporciona un mayor grado de seguridad, ya que solo los servidores NTP autenticados podrán actualizar el tiempo para el dispositivo Cisco.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben establecer tres hosts de Protocolo de tiempo de red (NTP) para establecer un tiempo coherente en toda la empresa. La habilitación del comando 'ntp authentication-key' aplica la autenticación cifrada entre hosts NTP.</t>
+  </si>
+  <si>
+    <t>Configurar en el anillo de claves NTP y la clave de cifrado mediante el siguiente comando</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ntp trusted-key ")</t>
+  </si>
+  <si>
+    <t>Asegúrese de autenticar la identidad de un sistema con el que se sincronizará el Protocolo de tiempo de red (NTP)</t>
+  </si>
+  <si>
+    <t>Esta función de autenticación proporciona protección contra la sincronización accidental del sistema con otro sistema que no es de confianza, ya que el otro sistema debe conocer la clave de autenticación correcta.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben establecer tres hosts de Protocolo de tiempo de red (NTP) para establecer un tiempo coherente en toda la empresa. La habilitación del comando 'ntp trusted-key' aplica la autenticación cifrada entre hosts NTP.</t>
+  </si>
+  <si>
+    <t>Configure la clave de confianza NTP mediante el siguiente comando. La autenticación de la identidad del sistema está deshabilitada.</t>
+  </si>
+  <si>
+    <t>ntp trusted-key {ntp_key_id}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ntp server ")</t>
+  </si>
+  <si>
+    <t>Especifica la clave de autenticación para NTP.</t>
+  </si>
+  <si>
+    <t>Esta característica de autenticación proporciona protección contra la sincronización accidental del sistema ntp con otro sistema que no es de confianza, ya que el otro sistema debe conocer la clave de autenticación correcta.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben establecer tres hosts de Protocolo de tiempo de red (NTP) para establecer un tiempo coherente en toda la empresa. La habilitación del comando 'ntp server key' aplica la autenticación cifrada entre hosts NTP.</t>
+  </si>
+  <si>
+    <t>Configure cada servidor NTP para que utilice una llave mediante el siguiente comando. No se establece ninguna clave NTP de forma predeterminada</t>
+  </si>
+  <si>
+    <t>ntp server {&lt;em&gt;ntp-server_ip_address&lt;/em&gt;}{key &lt;em&gt;ntp_key_id&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>Utilice este comando si desea permitir que el sistema sincronice el reloj del software del sistema con el servidor NTP especificado.</t>
+  </si>
+  <si>
+    <t>Para asegurarse de que el tiempo en su Dispositivo Cisco sea consistente con otros dispositivos en su red, se deben configurar al menos dos (y preferiblemente al menos tres) servidores NTP externos al dispositivo. Asegúrese de configurar también la configuración coherente de la zona horaria y el horario de verano para todos los dispositivos. Para simplificar, el valor predeterminado de Tiempo Universal Coordinado (UTC).</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben establecer tres hosts de Protocolo de tiempo de red (NTP) para establecer un tiempo coherente en toda la empresa. La habilitación de la 'ip address' del servidor NTP aplica la autenticación cifrada entre hosts NTP.</t>
+  </si>
+  <si>
+    <t>Utilice al menos tres fuentes de tiempo sincronizadas desde las que todos los servidores y dispositivos de red recuperen información de hora de forma regular para que las marcas de tiempo en los registros sean coherentes.</t>
+  </si>
+  <si>
+    <t>ntp server {ntp-server_ip_address}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^interface loopback ")</t>
+  </si>
+  <si>
+    <t>Configure una única interfaz de loopback.</t>
+  </si>
+  <si>
+    <t>La interfaz de loopback solo por software que emula una interfaz que siempre está actualizada es una interfaz virtual soportada en todas las plataformas. Las direcciones de loopback alternativas crean un potencial de abuso, configuración incorrecta e inconsistencias. Las interfaces de bucle invertido adicionales deben documentarse y aprobarse antes de su uso por parte del personal de seguridad local.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar y establecer "interfaces de loopback" para la red empresarial. Las interfaces de loopback permiten información de red crítica, como los ID de enrutador OSPF, y proporcionan puntos de terminación para las sesiones de protocolo de enrutamiento.</t>
+  </si>
+  <si>
+    <t>Defina y configure una interfaz de loopback.</t>
+  </si>
+  <si>
+    <t>interface loopback &lt;&lt;em&gt;number&lt;/em&gt;&gt; ip address &lt;&lt;em&gt;loopback_ip_address&lt;/em&gt;&gt; &lt;&lt;em&gt;loopback_subnet_mask&lt;/em&gt;&gt;</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ntp source loopback ")</t>
+  </si>
+  <si>
+    <t>Utilice una dirección de origen concreta en los paquetes del Protocolo de tiempo de red (NTP).</t>
+  </si>
+  <si>
+    <t>Establezca la dirección de origen que se utilizará al enviar tráfico NTP. Esto puede ser necesario si los servidores NTP tiene pares con filtro basado en la dirección IP.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar servicios de protocolo de tiempo de red (NTP) para establecer la hora oficial para todos los dispositivos de red empresariales. La configuración de 'ntp source loopback' aplica la dirección IP adecuada para los servicios NTP.</t>
+  </si>
+  <si>
+    <t>Enlace el servicio NTP a la interfaz de loopback.</t>
+  </si>
+  <si>
+    <t>ntp source loopback {&lt;em&gt;loopback_interface_number}&lt;/em&gt;</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip tftp source-interface loopback ")</t>
+  </si>
+  <si>
+    <t>Especifique la dirección IP de una interfaz como dirección de origen para las conexiones TFTP.</t>
+  </si>
+  <si>
+    <t>Esto es necesario para que los servidores TFTP puedan identificar fácilmente los dispositivos y autenticar las solicitudes por su dirección IP.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar servicios triviales de protocolo de transferencia de archivos (TFTP) en la empresa estableciendo 'tftp source-interface loopback', que permite a los servidores TFTP identificar dispositivos y autenticar solicitudes por dirección IP.</t>
+  </si>
+  <si>
+    <t>Enlace el cliente TFTP a la interfaz de loopback.</t>
+  </si>
+  <si>
+    <t>ip tftp source-interface loopback {&lt;em&gt;loobpback_interface_number&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^ip source-route ")</t>
+  </si>
+  <si>
+    <t>Deshabilite el manejo de datagramas IP con las opciones de encabezado de enrutamiento de origen.</t>
+  </si>
+  <si>
+    <t>El enrutamiento de origen es una característica de IP mediante la cual los paquetes individuales pueden especificar rutas. Esta característica se utiliza en varios tipos de ataques. Los dispositivos Cisco normalmente aceptan y procesan rutas de origen. A menos que una red dependa del enrutamiento de origen, debe deshabilitarse.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de red para garantizar que los servicios innecesarios se deshabiliten explícitamente. La función 'ip source-route' se ha utilizado en varios ataques y debe deshabilitarse.</t>
+  </si>
+  <si>
+    <t>Deshabilite source routing.</t>
+  </si>
+  <si>
+    <t>no ip source-route</t>
+  </si>
+  <si>
+    <t>parse.find_objects_w_child(parentspec=r"^interface", childspec=r"ip proxy-arp")</t>
+  </si>
+  <si>
+    <t>El Protocolo de resolución de direcciones (ARP) proporciona resolución entre direcciones IP y MAC (u otras direcciones de red y capa de enlace en ninguna red IP) dentro de una red de capa 2. Deshabilite el proxy ARP en todas las interfaces.</t>
+  </si>
+  <si>
+    <t>Proxy ARP es un servicio en el que un dispositivo conectado a una red (en este caso, el dispositivo Cisco) responde a las solicitudes de ARP que se dirigen a un host en otra red, respondiendo con su propia dirección MAC y reenviando el tráfico al host previsto. A veces se utiliza para extender dominios de difusión a través de enlaces WAN, en la mayoría de los casos proxy ARP en redes empresariales se utiliza para habilitar la comunicación para hosts con máscaras de subred mal configuradas, una situación que ya no debería ser un problema común. Proxy ARP rompe efectivamente el perímetro de seguridad de la LAN, extendiendo una red a través de múltiples segmentos de capa 2. El uso de Proxy ARP también puede permitir que se omitan otros controles de seguridad como PVLAN.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de red para garantizar que los servicios innecesarios se deshabiliten explícitamente. La función 'ip proxy-arp' rompe efectivamente el perímetro de seguridad de la LAN y debe deshabilitarse.</t>
+  </si>
+  <si>
+    <t>Deshabilite el proxy ARP en todas las interfaces.</t>
+  </si>
+  <si>
+    <t>interface {interface} 
+no ip proxy-arp</t>
+  </si>
+  <si>
+    <t>parse.find_objects(r"^interface tunnel ")</t>
+  </si>
+  <si>
+    <t>Compruebe que no se han definido interfaces de túnel.</t>
+  </si>
+  <si>
+    <t>Las interfaces de túnel no deberían existir en general. Se pueden utilizar con fines maliciosos. Si son necesarios, los administradores de la red deben ser muy conscientes de ellos y de su propósito.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad de red empresarial que deshabiliten las características inseguras e innecesarias que aumentan las superficies de ataque, como las "interfaces de túnel".</t>
+  </si>
+  <si>
+    <t>Elimine cualquier interfaz de túnel. De forma predeterminada, no se definen interfaces de túnel.</t>
+  </si>
+  <si>
+    <t>no interface tunnel {&lt;em&gt;instance&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>parse.find_objects_w_child(parentspec=r"^interface", childspec=r"ip verify unicast source")</t>
+  </si>
+  <si>
+    <t>Examina los paquetes entrantes para determinar si la dirección de origen se encuentra en la base de información de reenvío (FIB) y permite el paquete solo si se puede acceder a la fuente a través de la interfaz en la que se recibió el paquete (a veces denominado modo estricto).</t>
+  </si>
+  <si>
+    <t>URPF habilitado ayuda a mitigar la suplantación de IP al garantizar que solo las direcciones IP de origen de paquetes solo se originen en las interfaces esperadas. Configure el reenvío de ruta inversa de unidifusión (uRPF) en todas las interfaces externas o de alto riesgo.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que protejan la confidencialidad, integridad y disponibilidad de los dispositivos de red. La función 'unidifusión Reverse-Path Forwarding' (uRPF) utiliza dinámicamente la tabla del enrutador para aceptar o soltar paquetes al llegar a una interfaz.</t>
+  </si>
+  <si>
+    <t>Configurar uRPF. El RPF de unidifusión está deshabilitado de forma predeterminada</t>
+  </si>
+  <si>
+    <t>interface {&lt;em&gt;interface_name&lt;/em&gt;} 
+ip verify unicast source reachable-via rx</t>
+  </si>
+  <si>
+    <t>Este comando coloca al enrutador en el modo de configuración de lista de acceso, donde debe definir las condiciones de acceso denegado o permitido mediante los comandos denegar y permitir.</t>
+  </si>
+  <si>
+    <t>La configuración de los controles de acceso puede ayudar a prevenir ataques de suplantación de conducta. Para reducir la eficacia de la suplantación de IP, configure el control de acceso para denegar cualquier tráfico de la red externa que tenga una dirección de origen que deba residir en la red interna. Incluya la dirección de host local o cualquier dirección privada reservada (RFC 1918). Asegúrese de que las reglas de permiso por encima de la regla de denegación final solo permitan el tráfico de acuerdo con la directiva de privilegios mínimos de su organización.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que separen explícitamente las redes internas de las externas. Agregar 'ip access-list' que permite y deniega explícitamente las redes internas y externas hace cumplir estas políticas.</t>
+  </si>
+  <si>
+    <t>Configure ACL para restricciones de direcciones de origen privado de redes externas. No hay lista de acceso definida de forma predeterminada.</t>
+  </si>
+  <si>
+    <t>ip access-list extended {&lt;span&gt;&lt;em&gt;name | number&lt;/em&gt;} &lt;/span&gt;&lt;span&gt;
+deny ip {&lt;/span&gt;&lt;em&gt;internal_networks&lt;/em&gt;} any log 
+deny ip 127.0.0.0 0.255.255.255 any log 
+deny ip 10.0.0.0 0.255.255.255 any log 
+deny ip 0.0.0.0 0.255.255.255 any log 
+deny ip 172.16.0.0 0.15.255.255 any log 
+deny ip 192.168.0.0 0.0.255.255 any log 
+deny ip 192.0.2.0 0.0.0.255 any log 
+deny ip 169.254.0.0 0.0.255.255 any log 
+deny ip 224.0.0.0 31.255.255.255 any log 
+deny ip host 255.255.255.255 any log 
+permit {protocol} {source_ip} {source_mask} {destination} {destination_mask} log 
+deny any any log 
+interface &lt;external_&lt;em&gt;interface&lt;/em&gt;&gt; 
+access-group &lt;&lt;em&gt;access-list&lt;/em&gt;&gt; in</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que permitan y deniegan explícitamente el acceso en función de las listas de acceso. El uso del comando 'ip access-group' aplica estas directivas identificando explícitamente los grupos de acceso permitido.</t>
+  </si>
+  <si>
+    <t>Aplicar el grupo de acceso para la interfaz externa (que no es de confianza)</t>
+  </si>
+  <si>
+    <t>hostname(config)#interface {external_interface} hostname(config-if)#ip access-group {name | number} in</t>
+  </si>
+  <si>
+    <t>Defina una cadena de claves de autenticación para habilitar la autenticación para los protocolos de enrutamiento. Un llavero debe tener al menos una llave y puede tener hasta 2.147.483.647 llaves. NOTA: Solo DRP Agent, EIGRP y RIPv2 utilizan llaveros.</t>
+  </si>
+  <si>
+    <t>Los protocolos de enrutamiento como DRP Agent, EIGRP y RIPv2 utilizan llaves para la autenticación.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. El uso de llaves para los protocolos de enrutamiento hace cumplir estas políticas.</t>
+  </si>
+  <si>
+    <t>Establecer la llave. No está configurado de forma predeterminada.</t>
+  </si>
+  <si>
+    <t>key chain {&lt;em&gt;key-chain_name&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>Configure una clave de autenticación en un llavero.</t>
+  </si>
+  <si>
+    <t>Esto es parte de la configuración de autenticación de enrutamiento</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. El uso de "key-number" para los llaveros para los protocolos de enrutamiento hace cumplir estas políticas.</t>
+  </si>
+  <si>
+    <t>Configure el key-number.</t>
+  </si>
+  <si>
+    <t>key {&lt;em&gt;key-number&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>Configure la cadena de autenticación para una clave.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. El uso de 'key-string' para los llaveros para los protocolos de enrutamiento aplica estas políticas.</t>
+  </si>
+  <si>
+    <t>Configure el key-string.</t>
+  </si>
+  <si>
+    <t>key-string &lt;&lt;em&gt;key-string&lt;/em&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Configure la familia de direcciones EIGRP.</t>
+  </si>
+  <si>
+    <t>EIGRP es un verdadero protocolo de enrutamiento multiprotocolo y la función de "address-family" permite la restricción de intercambios con vecinos específicos</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. El uso de la "address-family" para EIGRP hace cumplir estas políticas al restringir los intercambios entre dispositivos de red predefinidos.</t>
+  </si>
+  <si>
+    <t>router eigrp &lt;&lt;em&gt;virtual-instance-name&lt;/em&gt;&gt; 
+address-family ipv4 autonomous-system {&lt;em&gt;eigrp_as-number&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>Define los valores predeterminados del usuario que se aplicarán a las interfaces EIGRP que pertenecen a una familia de direcciones.</t>
+  </si>
+  <si>
+    <t>Parte de la configuración de la familia de direcciones del EIGRP</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. El uso de «af-interface default» para las interfaces EIGRP hace cumplir estas políticas restringiendo los intercambios entre dispositivos de red predefinidos.</t>
+  </si>
+  <si>
+    <t>router eigrp &lt;&lt;em&gt;virtual-instance-name&lt;/em&gt;&gt; 
+address-family ipv4 autonomous-system {&lt;em&gt;eigrp_as-number&lt;/em&gt;} 
+af-interface default</t>
+  </si>
+  <si>
+    <t>Configure el llavero de la familia de direcciones EIGRP.</t>
+  </si>
+  <si>
+    <t>Esto forma parte de la configuración de autenticación EIGRP</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. El uso del «key-chain» de la familia de direcciones para el EIGRP hace cumplir estas políticas restringiendo los intercambios entre dispositivos de red predefinidos.</t>
+  </si>
+  <si>
+    <t>router eigrp &lt;virtual-instance-name&gt;
+address-family ipv4 autonomous-system {eigrp_as-number} 
+af-interface {interface-name} 
+authentication key-chain {eigrp_key-chain_name}</t>
+  </si>
+  <si>
+    <t>Configure authentication to prevent unapproved sources from introducing unauthorized or false service messages.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. El uso del «authentication mode» para los paquetes de familia de direcciones o familia de servicios EIGRP aplica estas políticas restringiendo el tipo de autenticación entre dispositivos de red.</t>
+  </si>
+  <si>
+    <t>Configure el modo de autenticación de la familia de direcciones EIGRP.</t>
+  </si>
+  <si>
+    <t>router eigrp &lt;virtual-instance-name&gt; 
+address-family ipv4 autonomous-system {eigrp_as-number} 
+af-interface {interface-name} 
+authentication mode md5</t>
+  </si>
+  <si>
+    <t>Especifique el tipo de autenticación utilizada en los paquetes del Protocolo de enrutamiento de puerta de enlace interior mejorada (EIGRP) por interfaz.</t>
+  </si>
+  <si>
+    <t>Configuración del número y el nombre de la cadena de claves de autenticación EIGRP para restringir los intercambios de paquetes entre dispositivos de red.</t>
+  </si>
+  <si>
+    <t>Organizations should plan and implement enterprise security policies that require rigorous authentication methods for routing protocols. Configuring the interface with 'ip authentication key chain' for EIGRP by name and number enforces these policies by restricting the exchanges between network devices.</t>
+  </si>
+  <si>
+    <t>Configure la interfaz con el llavero EIGRP.</t>
+  </si>
+  <si>
+    <t>interface {&lt;em&gt;interface_name&lt;/em&gt;} 
+ip authentication key-chain eigrp {&lt;em&gt;eigrp_as-number&lt;/em&gt;} {&lt;em&gt;eigrp_key-chain_name&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>Configure la autenticación para evitar que las fuentes no aprobadas introduzcan mensajes de enrutamiento no autorizados o falsos.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. La configuración de la interfaz con el «ip authentication mode» para EIGRP por número y modo hace cumplir estas políticas al restringir los intercambios entre dispositivos de red.</t>
+  </si>
+  <si>
+    <t>Configure la interfaz con el modo de autenticación EIGRP.</t>
+  </si>
+  <si>
+    <t>interface {&lt;em&gt;interface_name&lt;/em&gt;} 
+ip authentication mode eigrp {&lt;em&gt;&lt;span&gt;eigrp_as-number&lt;/span&gt;&lt;/em&gt;&lt;span&gt;}&lt;/span&gt; md5</t>
+  </si>
+  <si>
+    <t>Habilite la autenticación MD5 para OSPF.</t>
+  </si>
+  <si>
+    <t>Esto es parte de la configuración de autenticación OSPF.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. La configuración de las interfaces adecuadas para 'ip ospf message-digest-key md5' aplica estas políticas al restringir los intercambios entre dispositivos de red.</t>
+  </si>
+  <si>
+    <t>Configure la opción Resumen de mensajes para OSPF.  El tipo de autenticación debe ser el mismo para todos los enrutadores y servidores de acceso en un área. La contraseña de autenticación para todos los routers OSPF en una red debe ser la misma si van a comunicarse entre sí a través de OSPF</t>
+  </si>
+  <si>
+    <t>router ospf &lt;&lt;em&gt;ospf_process-id&lt;/em&gt;&gt; 
+area &lt;&lt;em&gt;ospf_area-id&lt;/em&gt;&gt; authentication message-digest</t>
+  </si>
+  <si>
+    <t>Habilite la autenticación Open Shortest Path First (OSPF) Message Digest 5 (MD5).</t>
+  </si>
+  <si>
+    <t>Esto es parte de la configuración de autenticación OSPF</t>
+  </si>
+  <si>
+    <t>Configurar las interfaces adecuadas para la autenticación implícita de mensajes</t>
+  </si>
+  <si>
+    <t>interface {&lt;em&gt;interface_name&lt;/em&gt;}
+ip ospf message-digest-key {&lt;em&gt;ospf_md5_key-id&lt;/em&gt;} md5 {&lt;em&gt;ospf_md5_key&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>Defina una cadena de claves de autenticación para habilitar la autenticación para los protocolos de enrutamiento RIPv2.</t>
+  </si>
+  <si>
+    <t>Esto es parte del proceso de autenticación de enrutamiento.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. La configuración de la autenticación adecuada 'key-chain (name)' para los protocolos RIPv2 hace cumplir estas políticas al restringir la autenticación aceptable entre dispositivos de red.</t>
+  </si>
+  <si>
+    <t>Establezca ka cadena de claves.</t>
+  </si>
+  <si>
+    <t>key chain {&lt;em&gt;rip_key-chain_name&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. La configuración de la "key" de autenticación adecuada para los protocolos RIPv2 hace cumplir estas políticas al restringir la autenticación aceptable entre dispositivos de red.</t>
+  </si>
+  <si>
+    <t>Configure the key number.</t>
+  </si>
+  <si>
+    <t>Configure the key string.</t>
+  </si>
+  <si>
+    <t>Habilite la autenticación para paquetes del Protocolo de información de enrutamiento (RIP) versión 2 y especifique el conjunto de claves que se pueden usar en una interfaz.</t>
+  </si>
+  <si>
+    <t>Esto forma parte de la configuración de autenticación RIPv2</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. La configuración de la interfaz con 'ip rip authentication key-chain' por nombre hace cumplir estas políticas al restringir los intercambios entre dispositivos de red.</t>
+  </si>
+  <si>
+    <t>Configure la interfaz con el llavero RIPv2.</t>
+  </si>
+  <si>
+    <t>interface {&lt;em&gt;interface_name&lt;/em&gt;}
+ip rip authentication key-chain {&lt;em&gt;rip_key-chain_name&lt;/em&gt;}</t>
+  </si>
+  <si>
+    <t>Configure the Interface with the RIPv2 key chain.</t>
+  </si>
+  <si>
+    <t>Esto forma parte de la configuración de autenticación RIPv3</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. El uso del ''ip rip authentication mode md5'' aplica estas políticas restringiendo el tipo de autenticación entre dispositivos de red.</t>
+  </si>
+  <si>
+    <t>Configurar el modo de autenticación RIPv2 en las interfaces necesarias</t>
+  </si>
+  <si>
+    <t>interface &lt;&lt;em&gt;interface_name&lt;/em&gt;&gt; 
+ip rip authentication mode md5</t>
+  </si>
+  <si>
+    <t>Border Gateway Protocol (BGP) es un protocolo vectorial de ruta utilizado para el enrutamiento de puertas de enlace interiores y exteriores en algunas redes. Habilitar la autenticación de resumen de mensajes5 (MD5) en una conexión TCP entre dos pares BGP</t>
+  </si>
+  <si>
+    <t>La aplicación de la autenticación de enrutamiento reduce la probabilidad de envenenamiento del enrutamiento y de que los enrutadores no autorizados se unan al enrutamiento BGP.</t>
+  </si>
+  <si>
+    <t>Las organizaciones deben planificar e implementar políticas de seguridad empresarial que requieran métodos de autenticación rigurosos para los protocolos de enrutamiento. El uso de la 'neighbor password' para BGP hace cumplir estas políticas al restringir el tipo de autenticación entre dispositivos de red.</t>
+  </si>
+  <si>
+    <t>Configure la autenticación de vecinos BGP cuando sea posible. Autenticación MD5 entre dos pares BGP, lo que significa que se verifica cada segmento enviado en la conexión TCP entre los pares. La autenticación MD5 debe configurarse con la misma contraseña en ambos pares BGP.</t>
+  </si>
+  <si>
+    <t>router bgp &lt;&lt;em&gt;bgp_as-number&lt;/em&gt;&gt; 
+neighbor &lt;&lt;em&gt;bgp_neighbor-ip&lt;/em&gt; | &lt;em&gt;peer-group-name&lt;/em&gt;&gt; password &lt;&lt;em&gt;password&lt;/em&gt;&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +1646,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -491,11 +1934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -533,189 +1976,2493 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1">
+    <row r="10" spans="1:8" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1">
+    <row r="11" spans="1:8" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="1">
+    <row r="13" spans="1:8" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="14" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="153" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="153" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="216.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="357" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="153" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
+      <c r="G68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/NIST.xlsx
+++ b/NIST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiscar\Desktop\Tesis\LanGuardian2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiscar\Desktop\Tesis\languardian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD310982-F16F-4B61-8E97-9F7B0FCD7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9933EACC-C0ED-4B48-9DAB-DC3ECA9F3C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1937,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2002,7 +2002,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>33</v>
       </c>
       <c r="H7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -2158,7 +2158,7 @@
         <v>45</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="165.75" x14ac:dyDescent="0.25">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="178.5" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="165.75" x14ac:dyDescent="0.25">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="102" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>33</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.25">
@@ -2356,7 +2356,7 @@
         <v>33</v>
       </c>
       <c r="H16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="153" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
         <v>33</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -2434,7 +2434,7 @@
         <v>33</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
@@ -2460,7 +2460,7 @@
         <v>33</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>33</v>
       </c>
       <c r="H22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
@@ -2538,7 +2538,7 @@
         <v>33</v>
       </c>
       <c r="H23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
@@ -2590,7 +2590,7 @@
         <v>33</v>
       </c>
       <c r="H25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="255" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>33</v>
       </c>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="255" x14ac:dyDescent="0.25">
@@ -2668,7 +2668,7 @@
         <v>33</v>
       </c>
       <c r="H28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
@@ -2694,7 +2694,7 @@
         <v>33</v>
       </c>
       <c r="H29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="102" x14ac:dyDescent="0.25">
@@ -2746,7 +2746,7 @@
         <v>33</v>
       </c>
       <c r="H31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>33</v>
       </c>
       <c r="H32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
@@ -2824,7 +2824,7 @@
         <v>33</v>
       </c>
       <c r="H34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -2876,7 +2876,7 @@
         <v>33</v>
       </c>
       <c r="H36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
         <v>33</v>
       </c>
       <c r="H37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -2954,7 +2954,7 @@
         <v>33</v>
       </c>
       <c r="H39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
         <v>33</v>
       </c>
       <c r="H40" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -3032,7 +3032,7 @@
         <v>33</v>
       </c>
       <c r="H42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -3058,7 +3058,7 @@
         <v>33</v>
       </c>
       <c r="H43" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="242.25" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
         <v>33</v>
       </c>
       <c r="H44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="357" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>33</v>
       </c>
       <c r="H46" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="51" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
         <v>33</v>
       </c>
       <c r="H47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="51" x14ac:dyDescent="0.25">
@@ -3214,7 +3214,7 @@
         <v>33</v>
       </c>
       <c r="H49" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
@@ -3240,7 +3240,7 @@
         <v>33</v>
       </c>
       <c r="H50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>33</v>
       </c>
       <c r="H51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="102" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>33</v>
       </c>
       <c r="H52" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
@@ -3318,7 +3318,7 @@
         <v>33</v>
       </c>
       <c r="H53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
@@ -3344,7 +3344,7 @@
         <v>33</v>
       </c>
       <c r="H54" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>33</v>
       </c>
       <c r="H55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
@@ -3396,7 +3396,7 @@
         <v>33</v>
       </c>
       <c r="H56" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
@@ -3422,7 +3422,7 @@
         <v>33</v>
       </c>
       <c r="H57" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="51" x14ac:dyDescent="0.25">
@@ -3448,7 +3448,7 @@
         <v>33</v>
       </c>
       <c r="H58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>33</v>
       </c>
       <c r="H59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -3500,7 +3500,7 @@
         <v>33</v>
       </c>
       <c r="H60" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
@@ -3526,7 +3526,7 @@
         <v>33</v>
       </c>
       <c r="H61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="153" x14ac:dyDescent="0.25">
@@ -3552,7 +3552,7 @@
         <v>33</v>
       </c>
       <c r="H62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
@@ -3578,7 +3578,7 @@
         <v>33</v>
       </c>
       <c r="H63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>33</v>
       </c>
       <c r="H64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -3630,7 +3630,7 @@
         <v>33</v>
       </c>
       <c r="H65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -3656,7 +3656,7 @@
         <v>33</v>
       </c>
       <c r="H66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.25">
@@ -3682,7 +3682,7 @@
         <v>33</v>
       </c>
       <c r="H67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="51" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
         <v>33</v>
       </c>
       <c r="H68" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="51" x14ac:dyDescent="0.25">
@@ -3734,7 +3734,7 @@
         <v>33</v>
       </c>
       <c r="H69" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="51" x14ac:dyDescent="0.25">
@@ -3760,7 +3760,7 @@
         <v>33</v>
       </c>
       <c r="H70" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
@@ -3786,7 +3786,7 @@
         <v>33</v>
       </c>
       <c r="H71" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
         <v>33</v>
       </c>
       <c r="H72" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
@@ -3838,7 +3838,7 @@
         <v>33</v>
       </c>
       <c r="H73" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
@@ -3864,7 +3864,7 @@
         <v>33</v>
       </c>
       <c r="H74" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -3890,7 +3890,7 @@
         <v>33</v>
       </c>
       <c r="H75" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="165.75" x14ac:dyDescent="0.25">
@@ -3916,7 +3916,7 @@
         <v>33</v>
       </c>
       <c r="H76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="51" x14ac:dyDescent="0.25">
@@ -3942,7 +3942,7 @@
         <v>33</v>
       </c>
       <c r="H77" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -3968,7 +3968,7 @@
         <v>33</v>
       </c>
       <c r="H78" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
@@ -3994,7 +3994,7 @@
         <v>33</v>
       </c>
       <c r="H79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
         <v>33</v>
       </c>
       <c r="H80" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -4046,7 +4046,7 @@
         <v>33</v>
       </c>
       <c r="H81" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
@@ -4072,7 +4072,7 @@
         <v>33</v>
       </c>
       <c r="H82" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
@@ -4098,7 +4098,7 @@
         <v>33</v>
       </c>
       <c r="H83" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
         <v>33</v>
       </c>
       <c r="H84" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
         <v>33</v>
       </c>
       <c r="H85" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
@@ -4176,7 +4176,7 @@
         <v>33</v>
       </c>
       <c r="H86" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="102" x14ac:dyDescent="0.25">
@@ -4202,7 +4202,7 @@
         <v>33</v>
       </c>
       <c r="H87" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="102" x14ac:dyDescent="0.25">
@@ -4254,7 +4254,7 @@
         <v>33</v>
       </c>
       <c r="H89" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="102" x14ac:dyDescent="0.25">
@@ -4280,7 +4280,7 @@
         <v>33</v>
       </c>
       <c r="H90" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="102" x14ac:dyDescent="0.25">
@@ -4332,7 +4332,7 @@
         <v>33</v>
       </c>
       <c r="H92" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -4384,7 +4384,7 @@
         <v>33</v>
       </c>
       <c r="H94" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
@@ -4410,7 +4410,7 @@
         <v>33</v>
       </c>
       <c r="H95" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
@@ -4462,7 +4462,7 @@
         <v>33</v>
       </c>
       <c r="H97" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
